--- a/outputs/technology_catalogue/technology_catalogue_ind_nuts1_nuts3.xlsx
+++ b/outputs/technology_catalogue/technology_catalogue_ind_nuts1_nuts3.xlsx
@@ -30510,7 +30510,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30544,15 +30544,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2040</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
@@ -30585,13 +30590,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>23.307</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="G2">
-        <v>23.307</v>
+        <v>32.01191338021048</v>
       </c>
       <c r="H2">
-        <v>23.307</v>
+        <v>39.02234378383208</v>
+      </c>
+      <c r="I2">
+        <v>47.56801932760842</v>
       </c>
     </row>
     <row r="3">
@@ -30621,13 +30629,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>23.307</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="G3">
-        <v>23.307</v>
+        <v>32.01191338021048</v>
       </c>
       <c r="H3">
-        <v>23.307</v>
+        <v>39.02234378383208</v>
+      </c>
+      <c r="I3">
+        <v>47.56801932760842</v>
       </c>
     </row>
     <row r="4">
@@ -30657,13 +30668,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>30.265</v>
+        <v>37.65000830664013</v>
       </c>
       <c r="G4">
-        <v>30.265</v>
+        <v>41.56865141168191</v>
       </c>
       <c r="H4">
-        <v>30.265</v>
+        <v>50.67195411754744</v>
+      </c>
+      <c r="I4">
+        <v>61.76882931952071</v>
       </c>
     </row>
     <row r="5">
@@ -30693,13 +30707,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>28.715</v>
+        <v>35.72179046836845</v>
       </c>
       <c r="G5">
-        <v>28.715</v>
+        <v>39.43974311205834</v>
       </c>
       <c r="H5">
-        <v>28.715</v>
+        <v>48.07682677962579</v>
+      </c>
+      <c r="I5">
+        <v>58.60538357541837</v>
       </c>
     </row>
     <row r="6">
@@ -30729,13 +30746,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>23.307</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="G6">
-        <v>23.307</v>
+        <v>32.01191338021048</v>
       </c>
       <c r="H6">
-        <v>23.307</v>
+        <v>39.02234378383208</v>
+      </c>
+      <c r="I6">
+        <v>47.56801932760842</v>
       </c>
     </row>
     <row r="7">
@@ -30765,13 +30785,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>23.307</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="G7">
-        <v>23.307</v>
+        <v>32.01191338021048</v>
       </c>
       <c r="H7">
-        <v>23.307</v>
+        <v>39.02234378383208</v>
+      </c>
+      <c r="I7">
+        <v>47.56801932760842</v>
       </c>
     </row>
     <row r="8">
@@ -30801,13 +30824,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>30.415</v>
+        <v>37.83661003292448</v>
       </c>
       <c r="G8">
-        <v>30.415</v>
+        <v>41.77467479551644</v>
       </c>
       <c r="H8">
-        <v>30.415</v>
+        <v>50.92309547283018</v>
+      </c>
+      <c r="I8">
+        <v>62.07496923024028</v>
       </c>
     </row>
     <row r="9">
@@ -30837,13 +30863,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>27.668</v>
+        <v>34.41931041890365</v>
       </c>
       <c r="G9">
-        <v>27.668</v>
+        <v>38.00169989289327</v>
       </c>
       <c r="H9">
-        <v>27.668</v>
+        <v>46.32386011975227</v>
+      </c>
+      <c r="I9">
+        <v>56.46852699859569</v>
       </c>
     </row>
     <row r="10">
@@ -30873,13 +30902,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>23.307</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="G10">
-        <v>23.307</v>
+        <v>32.01191338021048</v>
       </c>
       <c r="H10">
-        <v>23.307</v>
+        <v>39.02234378383208</v>
+      </c>
+      <c r="I10">
+        <v>47.56801932760842</v>
       </c>
     </row>
     <row r="11">
@@ -30909,13 +30941,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>23.307</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="G11">
-        <v>23.307</v>
+        <v>32.01191338021048</v>
       </c>
       <c r="H11">
-        <v>23.307</v>
+        <v>39.02234378383208</v>
+      </c>
+      <c r="I11">
+        <v>47.56801932760842</v>
       </c>
     </row>
     <row r="12">
@@ -30945,13 +30980,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>31.763</v>
+        <v>39.51353754646656</v>
       </c>
       <c r="G12">
-        <v>31.763</v>
+        <v>43.62613827157615</v>
       </c>
       <c r="H12">
-        <v>31.763</v>
+        <v>53.18001911897106</v>
+      </c>
+      <c r="I12">
+        <v>64.82614656124024</v>
       </c>
     </row>
     <row r="13">
@@ -30981,13 +31019,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>26.349</v>
+        <v>32.77845923910989</v>
       </c>
       <c r="G13">
-        <v>26.349</v>
+        <v>36.19006760437491</v>
       </c>
       <c r="H13">
-        <v>26.349</v>
+        <v>44.11549046896605</v>
+      </c>
+      <c r="I13">
+        <v>53.77653671700153</v>
       </c>
     </row>
     <row r="14">
@@ -31017,13 +31058,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>28.776</v>
+        <v>35.79767517039076</v>
       </c>
       <c r="G14">
-        <v>28.776</v>
+        <v>39.52352595481773</v>
       </c>
       <c r="H14">
-        <v>28.776</v>
+        <v>48.17895759744078</v>
+      </c>
+      <c r="I14">
+        <v>58.72988047244433</v>
       </c>
     </row>
     <row r="15">
@@ -31053,13 +31097,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>29.984</v>
+        <v>37.30044107273411</v>
       </c>
       <c r="G15">
-        <v>29.984</v>
+        <v>41.18270093929855</v>
       </c>
       <c r="H15">
-        <v>29.984</v>
+        <v>50.20148264531778</v>
+      </c>
+      <c r="I15">
+        <v>61.19532722010603</v>
       </c>
     </row>
     <row r="16">
@@ -31089,13 +31136,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>24.673</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="G16">
-        <v>24.673</v>
+        <v>33.88809966233033</v>
       </c>
       <c r="H16">
-        <v>24.673</v>
+        <v>41.3094043926069</v>
+      </c>
+      <c r="I16">
+        <v>50.35593344789473</v>
       </c>
     </row>
     <row r="17">
@@ -31125,13 +31175,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>29.303</v>
+        <v>36.45326923540313</v>
       </c>
       <c r="G17">
-        <v>29.303</v>
+        <v>40.24735477668974</v>
       </c>
       <c r="H17">
-        <v>29.303</v>
+        <v>49.06130089233414</v>
+      </c>
+      <c r="I17">
+        <v>59.80545202543913</v>
       </c>
     </row>
     <row r="18">
@@ -31161,13 +31214,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>29.594</v>
+        <v>36.81527658439479</v>
       </c>
       <c r="G18">
-        <v>29.594</v>
+        <v>40.64704014132875</v>
       </c>
       <c r="H18">
-        <v>29.594</v>
+        <v>49.54851512158266</v>
+      </c>
+      <c r="I18">
+        <v>60.39936345223512</v>
       </c>
     </row>
     <row r="19">
@@ -31197,13 +31253,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>24.673</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="G19">
-        <v>24.673</v>
+        <v>33.88809966233033</v>
       </c>
       <c r="H19">
-        <v>24.673</v>
+        <v>41.3094043926069</v>
+      </c>
+      <c r="I19">
+        <v>50.35593344789473</v>
       </c>
     </row>
     <row r="20">
@@ -31233,13 +31292,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>30.147</v>
+        <v>37.50321494862977</v>
       </c>
       <c r="G20">
-        <v>30.147</v>
+        <v>41.4065796830654</v>
       </c>
       <c r="H20">
-        <v>30.147</v>
+        <v>50.47438958472502</v>
+      </c>
+      <c r="I20">
+        <v>61.5279992564213</v>
       </c>
     </row>
     <row r="21">
@@ -31269,13 +31331,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>26.23</v>
+        <v>32.63042186959097</v>
       </c>
       <c r="G21">
-        <v>26.23</v>
+        <v>36.02662238653284</v>
       </c>
       <c r="H21">
-        <v>26.23</v>
+        <v>43.91625166044174</v>
+      </c>
+      <c r="I21">
+        <v>53.53366572116398</v>
       </c>
     </row>
     <row r="22">
@@ -31305,13 +31370,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>28.021</v>
+        <v>34.85844648142617</v>
       </c>
       <c r="G22">
-        <v>28.021</v>
+        <v>38.48654158951722</v>
       </c>
       <c r="H22">
-        <v>28.021</v>
+        <v>46.91487944251765</v>
+      </c>
+      <c r="I22">
+        <v>57.18897625515577</v>
       </c>
     </row>
     <row r="23">
@@ -31341,13 +31409,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>27.133</v>
+        <v>33.75376426182279</v>
       </c>
       <c r="G23">
-        <v>27.133</v>
+        <v>37.26688315721676</v>
       </c>
       <c r="H23">
-        <v>27.133</v>
+        <v>45.42812261924384</v>
+      </c>
+      <c r="I23">
+        <v>55.37662798369586</v>
       </c>
     </row>
     <row r="24">
@@ -31377,13 +31448,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>28.98</v>
+        <v>36.05145351813749</v>
       </c>
       <c r="G24">
-        <v>28.98</v>
+        <v>39.80371775683271</v>
       </c>
       <c r="H24">
-        <v>28.98</v>
+        <v>48.52050984062532</v>
+      </c>
+      <c r="I24">
+        <v>59.14623075102298</v>
       </c>
     </row>
     <row r="25">
@@ -31413,13 +31487,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>949.998</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="G25">
-        <v>949.998</v>
+        <v>1304.812017306955</v>
       </c>
       <c r="H25">
-        <v>949.998</v>
+        <v>1590.558568239281</v>
+      </c>
+      <c r="I25">
+        <v>1938.882019358534</v>
       </c>
     </row>
     <row r="26">
@@ -31449,13 +31526,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>949.998</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="G26">
-        <v>949.998</v>
+        <v>1304.812017306955</v>
       </c>
       <c r="H26">
-        <v>949.998</v>
+        <v>1590.558568239281</v>
+      </c>
+      <c r="I26">
+        <v>1938.882019358534</v>
       </c>
     </row>
     <row r="27">
@@ -31485,13 +31565,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>949.998</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="G27">
-        <v>949.998</v>
+        <v>1304.812017306955</v>
       </c>
       <c r="H27">
-        <v>949.998</v>
+        <v>1590.558568239281</v>
+      </c>
+      <c r="I27">
+        <v>1938.882019358534</v>
       </c>
     </row>
     <row r="28">
@@ -31521,13 +31604,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>949.998</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="G28">
-        <v>949.998</v>
+        <v>1304.812017306955</v>
       </c>
       <c r="H28">
-        <v>949.998</v>
+        <v>1590.558568239281</v>
+      </c>
+      <c r="I28">
+        <v>1938.882019358534</v>
       </c>
     </row>
     <row r="29">
@@ -31557,13 +31643,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>995.539</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="G29">
-        <v>995.539</v>
+        <v>1367.362090128346</v>
       </c>
       <c r="H29">
-        <v>995.539</v>
+        <v>1666.806757978822</v>
+      </c>
+      <c r="I29">
+        <v>2031.828137185736</v>
       </c>
     </row>
     <row r="30">
@@ -31593,13 +31682,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>995.539</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="G30">
-        <v>995.539</v>
+        <v>1367.362090128346</v>
       </c>
       <c r="H30">
-        <v>995.539</v>
+        <v>1666.806757978822</v>
+      </c>
+      <c r="I30">
+        <v>2031.828137185736</v>
       </c>
     </row>
     <row r="31">
@@ -31629,13 +31721,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>995.539</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="G31">
-        <v>995.539</v>
+        <v>1367.362090128346</v>
       </c>
       <c r="H31">
-        <v>995.539</v>
+        <v>1666.806757978822</v>
+      </c>
+      <c r="I31">
+        <v>2031.828137185736</v>
       </c>
     </row>
     <row r="32">
@@ -31665,13 +31760,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>995.539</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="G32">
-        <v>995.539</v>
+        <v>1367.362090128346</v>
       </c>
       <c r="H32">
-        <v>995.539</v>
+        <v>1666.806757978822</v>
+      </c>
+      <c r="I32">
+        <v>2031.828137185736</v>
       </c>
     </row>
     <row r="33">
@@ -31709,6 +31807,9 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -31745,6 +31846,9 @@
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -31781,6 +31885,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31817,6 +31924,9 @@
       <c r="H36">
         <v>0</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -31853,6 +31963,9 @@
       <c r="H37">
         <v>0</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31889,6 +32002,9 @@
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31917,13 +32033,16 @@
         </is>
       </c>
       <c r="F39">
-        <v>125.64</v>
+        <v>156.2976059357762</v>
       </c>
       <c r="G39">
-        <v>125.64</v>
+        <v>172.5651862998089</v>
       </c>
       <c r="H39">
-        <v>125.64</v>
+        <v>210.3559991848227</v>
+      </c>
+      <c r="I39">
+        <v>256.4227892187207</v>
       </c>
     </row>
     <row r="40">
@@ -31961,6 +32080,9 @@
       <c r="H40">
         <v>0</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31997,6 +32119,9 @@
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32033,6 +32158,9 @@
       <c r="H42">
         <v>0</v>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32069,6 +32197,9 @@
       <c r="H43">
         <v>0</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32105,6 +32236,9 @@
       <c r="H44">
         <v>0</v>
       </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32141,6 +32275,9 @@
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32177,6 +32314,9 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32205,13 +32345,16 @@
         </is>
       </c>
       <c r="F47">
-        <v>105.237</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="G47">
-        <v>105.237</v>
+        <v>144.541885630635</v>
       </c>
       <c r="H47">
-        <v>105.237</v>
+        <v>176.1957520392645</v>
+      </c>
+      <c r="I47">
+        <v>214.7816385626433</v>
       </c>
     </row>
     <row r="48">
@@ -32241,13 +32384,16 @@
         </is>
       </c>
       <c r="F48">
-        <v>105.237</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="G48">
-        <v>105.237</v>
+        <v>144.541885630635</v>
       </c>
       <c r="H48">
-        <v>105.237</v>
+        <v>176.1957520392645</v>
+      </c>
+      <c r="I48">
+        <v>214.7816385626433</v>
       </c>
     </row>
     <row r="49">
@@ -32277,13 +32423,16 @@
         </is>
       </c>
       <c r="F49">
-        <v>105.237</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="G49">
-        <v>105.237</v>
+        <v>144.541885630635</v>
       </c>
       <c r="H49">
-        <v>105.237</v>
+        <v>176.1957520392645</v>
+      </c>
+      <c r="I49">
+        <v>214.7816385626433</v>
       </c>
     </row>
     <row r="50">
@@ -32313,13 +32462,16 @@
         </is>
       </c>
       <c r="F50">
-        <v>105.237</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="G50">
-        <v>105.237</v>
+        <v>144.541885630635</v>
       </c>
       <c r="H50">
-        <v>105.237</v>
+        <v>176.1957520392645</v>
+      </c>
+      <c r="I50">
+        <v>214.7816385626433</v>
       </c>
     </row>
     <row r="51">
@@ -32349,13 +32501,16 @@
         </is>
       </c>
       <c r="F51">
-        <v>105.237</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="G51">
-        <v>105.237</v>
+        <v>144.541885630635</v>
       </c>
       <c r="H51">
-        <v>105.237</v>
+        <v>176.1957520392645</v>
+      </c>
+      <c r="I51">
+        <v>214.7816385626433</v>
       </c>
     </row>
     <row r="52">
@@ -32385,13 +32540,16 @@
         </is>
       </c>
       <c r="F52">
-        <v>105.237</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="G52">
-        <v>105.237</v>
+        <v>144.541885630635</v>
       </c>
       <c r="H52">
-        <v>105.237</v>
+        <v>176.1957520392645</v>
+      </c>
+      <c r="I52">
+        <v>214.7816385626433</v>
       </c>
     </row>
     <row r="53">
@@ -32421,13 +32579,16 @@
         </is>
       </c>
       <c r="F53">
-        <v>90.48999999999999</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="G53">
-        <v>90.48999999999999</v>
+        <v>124.2870400212489</v>
       </c>
       <c r="H53">
-        <v>90.48999999999999</v>
+        <v>151.5052082635675</v>
+      </c>
+      <c r="I53">
+        <v>184.6840034734323</v>
       </c>
     </row>
     <row r="54">
@@ -32457,13 +32618,16 @@
         </is>
       </c>
       <c r="F54">
-        <v>90.48999999999999</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="G54">
-        <v>90.48999999999999</v>
+        <v>124.2870400212489</v>
       </c>
       <c r="H54">
-        <v>90.48999999999999</v>
+        <v>151.5052082635675</v>
+      </c>
+      <c r="I54">
+        <v>184.6840034734323</v>
       </c>
     </row>
     <row r="55">
@@ -32493,13 +32657,16 @@
         </is>
       </c>
       <c r="F55">
-        <v>90.48999999999999</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="G55">
-        <v>90.48999999999999</v>
+        <v>124.2870400212489</v>
       </c>
       <c r="H55">
-        <v>90.48999999999999</v>
+        <v>151.5052082635675</v>
+      </c>
+      <c r="I55">
+        <v>184.6840034734323</v>
       </c>
     </row>
     <row r="56">
@@ -32529,13 +32696,16 @@
         </is>
       </c>
       <c r="F56">
-        <v>90.48999999999999</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="G56">
-        <v>90.48999999999999</v>
+        <v>124.2870400212489</v>
       </c>
       <c r="H56">
-        <v>90.48999999999999</v>
+        <v>151.5052082635675</v>
+      </c>
+      <c r="I56">
+        <v>184.6840034734323</v>
       </c>
     </row>
     <row r="57">
@@ -32565,13 +32735,16 @@
         </is>
       </c>
       <c r="F57">
-        <v>90.48999999999999</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="G57">
-        <v>90.48999999999999</v>
+        <v>124.2870400212489</v>
       </c>
       <c r="H57">
-        <v>90.48999999999999</v>
+        <v>151.5052082635675</v>
+      </c>
+      <c r="I57">
+        <v>184.6840034734323</v>
       </c>
     </row>
     <row r="58">
@@ -32601,13 +32774,16 @@
         </is>
       </c>
       <c r="F58">
-        <v>85.14100000000001</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="G58">
-        <v>85.14100000000001</v>
+        <v>116.9402461537092</v>
       </c>
       <c r="H58">
-        <v>85.14100000000001</v>
+        <v>142.5495075341849</v>
+      </c>
+      <c r="I58">
+        <v>173.7670542571721</v>
       </c>
     </row>
     <row r="59">
@@ -32637,13 +32813,16 @@
         </is>
       </c>
       <c r="F59">
-        <v>85.14100000000001</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="G59">
-        <v>85.14100000000001</v>
+        <v>116.9402461537092</v>
       </c>
       <c r="H59">
-        <v>85.14100000000001</v>
+        <v>142.5495075341849</v>
+      </c>
+      <c r="I59">
+        <v>173.7670542571721</v>
       </c>
     </row>
     <row r="60">
@@ -32673,13 +32852,16 @@
         </is>
       </c>
       <c r="F60">
-        <v>85.14100000000001</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="G60">
-        <v>85.14100000000001</v>
+        <v>116.9402461537092</v>
       </c>
       <c r="H60">
-        <v>85.14100000000001</v>
+        <v>142.5495075341849</v>
+      </c>
+      <c r="I60">
+        <v>173.7670542571721</v>
       </c>
     </row>
     <row r="61">
@@ -32709,13 +32891,16 @@
         </is>
       </c>
       <c r="F61">
-        <v>85.14100000000001</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="G61">
-        <v>85.14100000000001</v>
+        <v>116.9402461537092</v>
       </c>
       <c r="H61">
-        <v>85.14100000000001</v>
+        <v>142.5495075341849</v>
+      </c>
+      <c r="I61">
+        <v>173.7670542571721</v>
       </c>
     </row>
     <row r="62">
@@ -32745,13 +32930,16 @@
         </is>
       </c>
       <c r="F62">
-        <v>85.14100000000001</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="G62">
-        <v>85.14100000000001</v>
+        <v>116.9402461537092</v>
       </c>
       <c r="H62">
-        <v>85.14100000000001</v>
+        <v>142.5495075341849</v>
+      </c>
+      <c r="I62">
+        <v>173.7670542571721</v>
       </c>
     </row>
     <row r="63">
@@ -32781,13 +32969,16 @@
         </is>
       </c>
       <c r="F63">
-        <v>85.14100000000001</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="G63">
-        <v>85.14100000000001</v>
+        <v>116.9402461537092</v>
       </c>
       <c r="H63">
-        <v>85.14100000000001</v>
+        <v>142.5495075341849</v>
+      </c>
+      <c r="I63">
+        <v>173.7670542571721</v>
       </c>
     </row>
     <row r="64">
@@ -32817,13 +33008,16 @@
         </is>
       </c>
       <c r="F64">
-        <v>1.251593959731544</v>
+        <v>1.556997289953188</v>
       </c>
       <c r="G64">
-        <v>1.251593959731544</v>
+        <v>1.719050818471739</v>
       </c>
       <c r="H64">
-        <v>1.251593959731544</v>
+        <v>2.095513355404471</v>
+      </c>
+      <c r="I64">
+        <v>2.554419087262541</v>
       </c>
     </row>
     <row r="65">
@@ -32853,13 +33047,16 @@
         </is>
       </c>
       <c r="F65">
-        <v>0.6151845637583893</v>
+        <v>0.7652966772053575</v>
       </c>
       <c r="G65">
-        <v>0.6151845637583893</v>
+        <v>0.8449493700551823</v>
       </c>
       <c r="H65">
-        <v>0.6151845637583893</v>
+        <v>1.029988567275353</v>
+      </c>
+      <c r="I65">
+        <v>1.25555031616705</v>
       </c>
     </row>
     <row r="66">
@@ -32889,13 +33086,16 @@
         </is>
       </c>
       <c r="F66">
-        <v>1.151510067114094</v>
+        <v>1.43249177571536</v>
       </c>
       <c r="G66">
-        <v>1.151510067114094</v>
+        <v>1.581586670309209</v>
       </c>
       <c r="H66">
-        <v>1.151510067114094</v>
+        <v>1.927945325845014</v>
+      </c>
+      <c r="I66">
+        <v>2.350154594260046</v>
       </c>
     </row>
     <row r="67">
@@ -32925,13 +33125,16 @@
         </is>
       </c>
       <c r="F67">
-        <v>3.939429530201342</v>
+        <v>4.900695672740921</v>
       </c>
       <c r="G67">
-        <v>3.939429530201342</v>
+        <v>5.41076401459856</v>
       </c>
       <c r="H67">
-        <v>3.939429530201342</v>
+        <v>6.595691141704076</v>
+      </c>
+      <c r="I67">
+        <v>8.040110697746119</v>
       </c>
     </row>
     <row r="68">
@@ -32961,13 +33164,16 @@
         </is>
       </c>
       <c r="F68">
-        <v>4.133808724832215</v>
+        <v>5.142505627886811</v>
       </c>
       <c r="G68">
-        <v>4.133808724832215</v>
+        <v>5.677741744097791</v>
       </c>
       <c r="H68">
-        <v>4.133808724832215</v>
+        <v>6.921135504226508</v>
+      </c>
+      <c r="I68">
+        <v>8.436825559679715</v>
       </c>
     </row>
     <row r="69">
@@ -32997,13 +33203,16 @@
         </is>
       </c>
       <c r="F69">
-        <v>15.0996644295302</v>
+        <v>18.78415632576542</v>
       </c>
       <c r="G69">
-        <v>15.0996644295302</v>
+        <v>20.73922640358545</v>
       </c>
       <c r="H69">
-        <v>15.0996644295302</v>
+        <v>25.2810012609786</v>
+      </c>
+      <c r="I69">
+        <v>30.81739946901334</v>
       </c>
     </row>
     <row r="70">
@@ -33033,13 +33242,16 @@
         </is>
       </c>
       <c r="F70">
-        <v>15.81098993288591</v>
+        <v>19.66905343827385</v>
       </c>
       <c r="G70">
-        <v>15.81098993288591</v>
+        <v>21.71622431831311</v>
       </c>
       <c r="H70">
-        <v>15.81098993288591</v>
+        <v>26.47195626737813</v>
+      </c>
+      <c r="I70">
+        <v>32.26916697627919</v>
       </c>
     </row>
     <row r="71">
@@ -33069,13 +33281,16 @@
         </is>
       </c>
       <c r="F71">
-        <v>341.899</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="G71">
-        <v>341.899</v>
+        <v>469.5945927309643</v>
       </c>
       <c r="H71">
-        <v>341.899</v>
+        <v>572.4331881987562</v>
+      </c>
+      <c r="I71">
+        <v>697.7928622340926</v>
       </c>
     </row>
     <row r="72">
@@ -33105,13 +33320,16 @@
         </is>
       </c>
       <c r="F72">
-        <v>341.899</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="G72">
-        <v>341.899</v>
+        <v>469.5945927309643</v>
       </c>
       <c r="H72">
-        <v>341.899</v>
+        <v>572.4331881987562</v>
+      </c>
+      <c r="I72">
+        <v>697.7928622340926</v>
       </c>
     </row>
     <row r="73">
@@ -33141,13 +33359,16 @@
         </is>
       </c>
       <c r="F73">
-        <v>361.715</v>
+        <v>449.9776228196376</v>
       </c>
       <c r="G73">
-        <v>361.715</v>
+        <v>496.8116552247322</v>
       </c>
       <c r="H73">
-        <v>361.715</v>
+        <v>605.6106355073077</v>
+      </c>
+      <c r="I73">
+        <v>738.2359853728871</v>
       </c>
     </row>
     <row r="74">
@@ -33177,13 +33398,16 @@
         </is>
       </c>
       <c r="F74">
-        <v>247.891</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="G74">
-        <v>247.891</v>
+        <v>340.4756176141827</v>
       </c>
       <c r="H74">
-        <v>247.891</v>
+        <v>415.0378780159574</v>
+      </c>
+      <c r="I74">
+        <v>505.9288573879169</v>
       </c>
     </row>
     <row r="75">
@@ -33213,13 +33437,16 @@
         </is>
       </c>
       <c r="F75">
-        <v>247.891</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="G75">
-        <v>247.891</v>
+        <v>340.4756176141827</v>
       </c>
       <c r="H75">
-        <v>247.891</v>
+        <v>415.0378780159574</v>
+      </c>
+      <c r="I75">
+        <v>505.9288573879169</v>
       </c>
     </row>
     <row r="76">
@@ -33249,13 +33476,16 @@
         </is>
       </c>
       <c r="F76">
-        <v>247.891</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="G76">
-        <v>247.891</v>
+        <v>340.4756176141827</v>
       </c>
       <c r="H76">
-        <v>247.891</v>
+        <v>415.0378780159574</v>
+      </c>
+      <c r="I76">
+        <v>505.9288573879169</v>
       </c>
     </row>
     <row r="77">
@@ -33285,13 +33515,16 @@
         </is>
       </c>
       <c r="F77">
-        <v>222.794</v>
+        <v>277.1583000386448</v>
       </c>
       <c r="G77">
-        <v>222.794</v>
+        <v>306.0051585202135</v>
       </c>
       <c r="H77">
-        <v>222.794</v>
+        <v>373.0185807257515</v>
+      </c>
+      <c r="I77">
+        <v>454.707568459055</v>
       </c>
     </row>
     <row r="78">
@@ -33321,13 +33554,16 @@
         </is>
       </c>
       <c r="F78">
-        <v>475.165</v>
+        <v>591.1107284660385</v>
       </c>
       <c r="G78">
-        <v>475.165</v>
+        <v>652.6340078649209</v>
       </c>
       <c r="H78">
-        <v>475.165</v>
+        <v>795.5572138861531</v>
+      </c>
+      <c r="I78">
+        <v>969.7798045137964</v>
       </c>
     </row>
     <row r="79">
@@ -33357,12 +33593,15 @@
         </is>
       </c>
       <c r="F79">
+        <v>15.735</v>
+      </c>
+      <c r="G79">
         <v>13.5</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>9.039999999999999</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>7.87</v>
       </c>
     </row>
@@ -33393,12 +33632,15 @@
         </is>
       </c>
       <c r="F80">
-        <v>3.63433044450657</v>
+        <v>4.724629577858541</v>
       </c>
       <c r="G80">
         <v>3.63433044450657</v>
       </c>
       <c r="H80">
+        <v>3.63433044450657</v>
+      </c>
+      <c r="I80">
         <v>3.149753051905694</v>
       </c>
     </row>
@@ -74573,7 +74815,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -74607,15 +74849,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2040</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
@@ -74656,6 +74903,9 @@
       <c r="H2">
         <v>0.08007</v>
       </c>
+      <c r="I2">
+        <v>0.08007</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -74692,6 +74942,9 @@
       <c r="H3">
         <v>0.31887</v>
       </c>
+      <c r="I3">
+        <v>0.31887</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -74728,6 +74981,9 @@
       <c r="H4">
         <v>0.12284</v>
       </c>
+      <c r="I4">
+        <v>0.12284</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -74764,6 +75020,9 @@
       <c r="H5">
         <v>0.20478</v>
       </c>
+      <c r="I5">
+        <v>0.20478</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -74800,6 +75059,9 @@
       <c r="H6">
         <v>0.08007</v>
       </c>
+      <c r="I6">
+        <v>0.08007</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -74836,6 +75098,9 @@
       <c r="H7">
         <v>0.59051</v>
       </c>
+      <c r="I7">
+        <v>0.59051</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -74872,6 +75137,9 @@
       <c r="H8">
         <v>0.13031</v>
       </c>
+      <c r="I8">
+        <v>0.13031</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -74908,6 +75176,9 @@
       <c r="H9">
         <v>0.59051</v>
       </c>
+      <c r="I9">
+        <v>0.59051</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -74944,6 +75215,9 @@
       <c r="H10">
         <v>0.15832</v>
       </c>
+      <c r="I10">
+        <v>0.15832</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -74980,6 +75254,9 @@
       <c r="H11">
         <v>0.59424</v>
       </c>
+      <c r="I11">
+        <v>0.59424</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -75016,6 +75293,9 @@
       <c r="H12">
         <v>0.08007</v>
       </c>
+      <c r="I12">
+        <v>0.08007</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -75052,6 +75332,9 @@
       <c r="H13">
         <v>0.6826</v>
       </c>
+      <c r="I13">
+        <v>0.6826</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -75088,6 +75371,9 @@
       <c r="H14">
         <v>0.16753</v>
       </c>
+      <c r="I14">
+        <v>0.16753</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -75124,6 +75410,9 @@
       <c r="H15">
         <v>1.06916</v>
       </c>
+      <c r="I15">
+        <v>1.06916</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -75160,6 +75449,9 @@
       <c r="H16">
         <v>0.13141</v>
       </c>
+      <c r="I16">
+        <v>0.13141</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -75196,6 +75488,9 @@
       <c r="H17">
         <v>0.6826</v>
       </c>
+      <c r="I17">
+        <v>0.6826</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -75232,6 +75527,9 @@
       <c r="H18">
         <v>0.14003</v>
       </c>
+      <c r="I18">
+        <v>0.14003</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -75268,6 +75566,9 @@
       <c r="H19">
         <v>0.6826</v>
       </c>
+      <c r="I19">
+        <v>0.6826</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -75304,6 +75605,9 @@
       <c r="H20">
         <v>0.08007</v>
       </c>
+      <c r="I20">
+        <v>0.08007</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -75340,6 +75644,9 @@
       <c r="H21">
         <v>0.76776</v>
       </c>
+      <c r="I21">
+        <v>0.76776</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -75376,6 +75683,9 @@
       <c r="H22">
         <v>0.1903</v>
       </c>
+      <c r="I22">
+        <v>0.1903</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -75412,6 +75722,9 @@
       <c r="H23">
         <v>1.23841</v>
       </c>
+      <c r="I23">
+        <v>1.23841</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -75448,6 +75761,9 @@
       <c r="H24">
         <v>0.14085</v>
       </c>
+      <c r="I24">
+        <v>0.14085</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -75484,6 +75800,9 @@
       <c r="H25">
         <v>0.76776</v>
       </c>
+      <c r="I25">
+        <v>0.76776</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -75520,6 +75839,9 @@
       <c r="H26">
         <v>0.17951</v>
       </c>
+      <c r="I26">
+        <v>0.17951</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -75556,6 +75878,9 @@
       <c r="H27">
         <v>0.87578</v>
       </c>
+      <c r="I27">
+        <v>0.87578</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -75592,6 +75917,9 @@
       <c r="H28">
         <v>0.15939</v>
       </c>
+      <c r="I28">
+        <v>0.15939</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -75628,6 +75956,9 @@
       <c r="H29">
         <v>0.76776</v>
       </c>
+      <c r="I29">
+        <v>0.76776</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -75664,6 +75995,9 @@
       <c r="H30">
         <v>0.12069</v>
       </c>
+      <c r="I30">
+        <v>0.12069</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -75700,6 +76034,9 @@
       <c r="H31">
         <v>0.50225</v>
       </c>
+      <c r="I31">
+        <v>0.50225</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -75736,6 +76073,9 @@
       <c r="H32">
         <v>0.13827</v>
       </c>
+      <c r="I32">
+        <v>0.13827</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -75772,6 +76112,9 @@
       <c r="H33">
         <v>0.82702</v>
       </c>
+      <c r="I33">
+        <v>0.82702</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -75808,6 +76151,9 @@
       <c r="H34">
         <v>0.11574</v>
       </c>
+      <c r="I34">
+        <v>0.11574</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -75844,6 +76190,9 @@
       <c r="H35">
         <v>0.50929</v>
       </c>
+      <c r="I35">
+        <v>0.50929</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -75880,6 +76229,9 @@
       <c r="H36">
         <v>0.15678</v>
       </c>
+      <c r="I36">
+        <v>0.15678</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -75916,6 +76268,9 @@
       <c r="H37">
         <v>0.51352</v>
       </c>
+      <c r="I37">
+        <v>0.51352</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -75952,6 +76307,9 @@
       <c r="H38">
         <v>0.14878</v>
       </c>
+      <c r="I38">
+        <v>0.14878</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -75988,6 +76346,9 @@
       <c r="H39">
         <v>0.86483</v>
       </c>
+      <c r="I39">
+        <v>0.86483</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -76024,6 +76385,9 @@
       <c r="H40">
         <v>0.12188</v>
       </c>
+      <c r="I40">
+        <v>0.12188</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -76060,6 +76424,9 @@
       <c r="H41">
         <v>0.59014</v>
       </c>
+      <c r="I41">
+        <v>0.59014</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -76096,6 +76463,9 @@
       <c r="H42">
         <v>0.14271</v>
       </c>
+      <c r="I42">
+        <v>0.14271</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -76132,6 +76502,9 @@
       <c r="H43">
         <v>0.6825599999999999</v>
       </c>
+      <c r="I43">
+        <v>0.6825599999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -76168,6 +76541,9 @@
       <c r="H44">
         <v>0.12934</v>
       </c>
+      <c r="I44">
+        <v>0.12934</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -76204,6 +76580,9 @@
       <c r="H45">
         <v>0.59014</v>
       </c>
+      <c r="I45">
+        <v>0.59014</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -76240,6 +76619,9 @@
       <c r="H46">
         <v>0.15847</v>
       </c>
+      <c r="I46">
+        <v>0.15847</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -76276,6 +76658,9 @@
       <c r="H47">
         <v>0.70841</v>
       </c>
+      <c r="I47">
+        <v>0.70841</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -76312,6 +76697,9 @@
       <c r="H48">
         <v>0.14607</v>
       </c>
+      <c r="I48">
+        <v>0.14607</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -76348,6 +76736,9 @@
       <c r="H49">
         <v>0.66377</v>
       </c>
+      <c r="I49">
+        <v>0.66377</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -76384,6 +76775,9 @@
       <c r="H50">
         <v>0.13637</v>
       </c>
+      <c r="I50">
+        <v>0.13637</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -76420,6 +76814,9 @@
       <c r="H51">
         <v>0.00165</v>
       </c>
+      <c r="I51">
+        <v>0.00165</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -76456,6 +76853,9 @@
       <c r="H52">
         <v>0.08046</v>
       </c>
+      <c r="I52">
+        <v>0.08046</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -76492,6 +76892,9 @@
       <c r="H53">
         <v>0.13898</v>
       </c>
+      <c r="I53">
+        <v>0.13898</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -76528,6 +76931,9 @@
       <c r="H54">
         <v>0.00165</v>
       </c>
+      <c r="I54">
+        <v>0.00165</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -76564,6 +76970,9 @@
       <c r="H55">
         <v>0.08431</v>
       </c>
+      <c r="I55">
+        <v>0.08431</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -76600,6 +77009,9 @@
       <c r="H56">
         <v>0.13637</v>
       </c>
+      <c r="I56">
+        <v>0.13637</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -76636,6 +77048,9 @@
       <c r="H57">
         <v>0.08679000000000001</v>
       </c>
+      <c r="I57">
+        <v>0.08679000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -76672,6 +77087,9 @@
       <c r="H58">
         <v>0.20737</v>
       </c>
+      <c r="I58">
+        <v>0.20737</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -76708,6 +77126,9 @@
       <c r="H59">
         <v>0.00165</v>
       </c>
+      <c r="I59">
+        <v>0.00165</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -76744,6 +77165,9 @@
       <c r="H60">
         <v>0.35899</v>
       </c>
+      <c r="I60">
+        <v>0.35899</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -76780,6 +77204,9 @@
       <c r="H61">
         <v>2.26121</v>
       </c>
+      <c r="I61">
+        <v>2.26121</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -76816,6 +77243,9 @@
       <c r="H62">
         <v>0.43406</v>
       </c>
+      <c r="I62">
+        <v>0.43406</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -76852,6 +77282,9 @@
       <c r="H63">
         <v>2.42648</v>
       </c>
+      <c r="I63">
+        <v>2.42648</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -76888,6 +77321,9 @@
       <c r="H64">
         <v>0.35899</v>
       </c>
+      <c r="I64">
+        <v>0.35899</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -76924,6 +77360,9 @@
       <c r="H65">
         <v>2.39319</v>
       </c>
+      <c r="I65">
+        <v>2.39319</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -76960,6 +77399,9 @@
       <c r="H66">
         <v>2.36531</v>
       </c>
+      <c r="I66">
+        <v>2.36531</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -76996,6 +77438,9 @@
       <c r="H67">
         <v>0.29409</v>
       </c>
+      <c r="I67">
+        <v>0.29409</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -77032,6 +77477,9 @@
       <c r="H68">
         <v>16.76536</v>
       </c>
+      <c r="I68">
+        <v>16.76536</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -77068,6 +77516,9 @@
       <c r="H69">
         <v>0.74208</v>
       </c>
+      <c r="I69">
+        <v>0.74208</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -77104,6 +77555,9 @@
       <c r="H70">
         <v>0.72326</v>
       </c>
+      <c r="I70">
+        <v>0.72326</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -77140,6 +77594,9 @@
       <c r="H71">
         <v>16.76536</v>
       </c>
+      <c r="I71">
+        <v>16.76536</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -77176,6 +77633,9 @@
       <c r="H72">
         <v>10.3877</v>
       </c>
+      <c r="I72">
+        <v>10.3877</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -77212,6 +77672,9 @@
       <c r="H73">
         <v>16.76536</v>
       </c>
+      <c r="I73">
+        <v>16.76536</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -77248,6 +77711,9 @@
       <c r="H74">
         <v>0.20585</v>
       </c>
+      <c r="I74">
+        <v>0.20585</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -77284,6 +77750,9 @@
       <c r="H75">
         <v>13.57566</v>
       </c>
+      <c r="I75">
+        <v>13.57566</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -77320,6 +77789,9 @@
       <c r="H76">
         <v>1.5578</v>
       </c>
+      <c r="I76">
+        <v>1.5578</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -77356,6 +77828,9 @@
       <c r="H77">
         <v>26.61397</v>
       </c>
+      <c r="I77">
+        <v>26.61397</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -77392,6 +77867,9 @@
       <c r="H78">
         <v>1.52667</v>
       </c>
+      <c r="I78">
+        <v>1.52667</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -77428,6 +77906,9 @@
       <c r="H79">
         <v>4.96693</v>
       </c>
+      <c r="I79">
+        <v>4.96693</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -77464,6 +77945,9 @@
       <c r="H80">
         <v>25.76619</v>
       </c>
+      <c r="I80">
+        <v>25.76619</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -77500,6 +77984,9 @@
       <c r="H81">
         <v>19.0191</v>
       </c>
+      <c r="I81">
+        <v>19.0191</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -77536,6 +78023,9 @@
       <c r="H82">
         <v>0.57528</v>
       </c>
+      <c r="I82">
+        <v>0.57528</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -77572,6 +78062,9 @@
       <c r="H83">
         <v>7.84717</v>
       </c>
+      <c r="I83">
+        <v>7.84717</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -77608,6 +78101,9 @@
       <c r="H84">
         <v>0.57528</v>
       </c>
+      <c r="I84">
+        <v>0.57528</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -77644,6 +78140,9 @@
       <c r="H85">
         <v>7.84717</v>
       </c>
+      <c r="I85">
+        <v>7.84717</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -77680,6 +78179,9 @@
       <c r="H86">
         <v>0.59718</v>
       </c>
+      <c r="I86">
+        <v>0.59718</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -77716,6 +78218,9 @@
       <c r="H87">
         <v>8.223839999999999</v>
       </c>
+      <c r="I87">
+        <v>8.223839999999999</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -77752,6 +78257,9 @@
       <c r="H88">
         <v>0.59224</v>
       </c>
+      <c r="I88">
+        <v>0.59224</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -77788,6 +78296,9 @@
       <c r="H89">
         <v>7.25467</v>
       </c>
+      <c r="I89">
+        <v>7.25467</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -77824,6 +78335,9 @@
       <c r="H90">
         <v>0.7160300000000001</v>
       </c>
+      <c r="I90">
+        <v>0.7160300000000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -77860,6 +78374,9 @@
       <c r="H91">
         <v>7.25467</v>
       </c>
+      <c r="I91">
+        <v>7.25467</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -77896,6 +78413,9 @@
       <c r="H92">
         <v>1.23596</v>
       </c>
+      <c r="I92">
+        <v>1.23596</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -77932,6 +78452,9 @@
       <c r="H93">
         <v>11.2245</v>
       </c>
+      <c r="I93">
+        <v>11.2245</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -77968,6 +78491,9 @@
       <c r="H94">
         <v>0.94246</v>
       </c>
+      <c r="I94">
+        <v>0.94246</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78004,6 +78530,9 @@
       <c r="H95">
         <v>6.38865</v>
       </c>
+      <c r="I95">
+        <v>6.38865</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -78040,6 +78569,9 @@
       <c r="H96">
         <v>0.29677</v>
       </c>
+      <c r="I96">
+        <v>0.29677</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -78076,6 +78608,9 @@
       <c r="H97">
         <v>0.01219</v>
       </c>
+      <c r="I97">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -78112,6 +78647,9 @@
       <c r="H98">
         <v>1.31019</v>
       </c>
+      <c r="I98">
+        <v>1.31019</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78148,6 +78686,9 @@
       <c r="H99">
         <v>0.31329</v>
       </c>
+      <c r="I99">
+        <v>0.31329</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78184,6 +78725,9 @@
       <c r="H100">
         <v>0.01219</v>
       </c>
+      <c r="I100">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78220,6 +78764,9 @@
       <c r="H101">
         <v>1.31019</v>
       </c>
+      <c r="I101">
+        <v>1.31019</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78256,6 +78803,9 @@
       <c r="H102">
         <v>0.29677</v>
       </c>
+      <c r="I102">
+        <v>0.29677</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -78292,6 +78842,9 @@
       <c r="H103">
         <v>1.39563</v>
       </c>
+      <c r="I103">
+        <v>1.39563</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -78328,6 +78881,9 @@
       <c r="H104">
         <v>0.30032</v>
       </c>
+      <c r="I104">
+        <v>0.30032</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -78364,6 +78920,9 @@
       <c r="H105">
         <v>1.39563</v>
       </c>
+      <c r="I105">
+        <v>1.39563</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -78400,6 +78959,9 @@
       <c r="H106">
         <v>1.40901</v>
       </c>
+      <c r="I106">
+        <v>1.40901</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -78436,6 +78998,9 @@
       <c r="H107">
         <v>0.01219</v>
       </c>
+      <c r="I107">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -78472,6 +79037,9 @@
       <c r="H108">
         <v>1.41256</v>
       </c>
+      <c r="I108">
+        <v>1.41256</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -78508,6 +79076,9 @@
       <c r="H109">
         <v>0.01219</v>
       </c>
+      <c r="I109">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -78544,6 +79115,9 @@
       <c r="H110">
         <v>0.59832</v>
       </c>
+      <c r="I110">
+        <v>0.59832</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -78580,6 +79154,9 @@
       <c r="H111">
         <v>0.01219</v>
       </c>
+      <c r="I111">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -78616,6 +79193,9 @@
       <c r="H112">
         <v>2.00607</v>
       </c>
+      <c r="I112">
+        <v>2.00607</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -78652,6 +79232,9 @@
       <c r="H113">
         <v>0.62929</v>
       </c>
+      <c r="I113">
+        <v>0.62929</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -78688,6 +79271,9 @@
       <c r="H114">
         <v>0.01219</v>
       </c>
+      <c r="I114">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -78724,6 +79310,9 @@
       <c r="H115">
         <v>2.00607</v>
       </c>
+      <c r="I115">
+        <v>2.00607</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -78760,6 +79349,9 @@
       <c r="H116">
         <v>0.59832</v>
       </c>
+      <c r="I116">
+        <v>0.59832</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -78796,6 +79388,9 @@
       <c r="H117">
         <v>1.98532</v>
       </c>
+      <c r="I117">
+        <v>1.98532</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -78832,6 +79427,9 @@
       <c r="H118">
         <v>0.60942</v>
       </c>
+      <c r="I118">
+        <v>0.60942</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -78868,6 +79466,9 @@
       <c r="H119">
         <v>1.98532</v>
       </c>
+      <c r="I119">
+        <v>1.98532</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -78904,6 +79505,9 @@
       <c r="H120">
         <v>2.19576</v>
       </c>
+      <c r="I120">
+        <v>2.19576</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -78940,6 +79544,9 @@
       <c r="H121">
         <v>0.01219</v>
       </c>
+      <c r="I121">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -78976,6 +79583,9 @@
       <c r="H122">
         <v>0.22138</v>
       </c>
+      <c r="I122">
+        <v>0.22138</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -79012,6 +79622,9 @@
       <c r="H123">
         <v>0.01219</v>
       </c>
+      <c r="I123">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -79048,6 +79661,9 @@
       <c r="H124">
         <v>1.50432</v>
       </c>
+      <c r="I124">
+        <v>1.50432</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -79084,6 +79700,9 @@
       <c r="H125">
         <v>0.24515</v>
       </c>
+      <c r="I125">
+        <v>0.24515</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -79120,6 +79739,9 @@
       <c r="H126">
         <v>0.01219</v>
       </c>
+      <c r="I126">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -79156,6 +79778,9 @@
       <c r="H127">
         <v>1.50432</v>
       </c>
+      <c r="I127">
+        <v>1.50432</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -79192,6 +79817,9 @@
       <c r="H128">
         <v>0.22138</v>
       </c>
+      <c r="I128">
+        <v>0.22138</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -79228,6 +79856,9 @@
       <c r="H129">
         <v>1.60062</v>
       </c>
+      <c r="I129">
+        <v>1.60062</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -79264,6 +79895,9 @@
       <c r="H130">
         <v>0.23025</v>
       </c>
+      <c r="I130">
+        <v>0.23025</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -79300,6 +79934,9 @@
       <c r="H131">
         <v>1.60062</v>
       </c>
+      <c r="I131">
+        <v>1.60062</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -79336,6 +79973,9 @@
       <c r="H132">
         <v>1.49843</v>
       </c>
+      <c r="I132">
+        <v>1.49843</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -79372,6 +80012,9 @@
       <c r="H133">
         <v>0.01219</v>
       </c>
+      <c r="I133">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -79408,6 +80051,9 @@
       <c r="H134">
         <v>1.5073</v>
       </c>
+      <c r="I134">
+        <v>1.5073</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -79444,6 +80090,9 @@
       <c r="H135">
         <v>0.01219</v>
       </c>
+      <c r="I135">
+        <v>0.01219</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -79480,6 +80129,9 @@
       <c r="H136">
         <v>0.00333</v>
       </c>
+      <c r="I136">
+        <v>0.00333</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -79516,6 +80168,9 @@
       <c r="H137">
         <v>0.05832</v>
       </c>
+      <c r="I137">
+        <v>0.05832</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -79552,6 +80207,9 @@
       <c r="H138">
         <v>1.56229</v>
       </c>
+      <c r="I138">
+        <v>1.56229</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -79588,6 +80246,9 @@
       <c r="H139">
         <v>0.00333</v>
       </c>
+      <c r="I139">
+        <v>0.00333</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -79624,6 +80285,9 @@
       <c r="H140">
         <v>0.01174</v>
       </c>
+      <c r="I140">
+        <v>0.01174</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -79660,6 +80324,9 @@
       <c r="H141">
         <v>0.0401</v>
       </c>
+      <c r="I141">
+        <v>0.0401</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -79696,6 +80363,9 @@
       <c r="H142">
         <v>1.56229</v>
       </c>
+      <c r="I142">
+        <v>1.56229</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -79732,6 +80402,9 @@
       <c r="H143">
         <v>0.00629</v>
       </c>
+      <c r="I143">
+        <v>0.00629</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -79768,6 +80441,9 @@
       <c r="H144">
         <v>0.05832</v>
       </c>
+      <c r="I144">
+        <v>0.05832</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -79804,6 +80480,9 @@
       <c r="H145">
         <v>1.56229</v>
       </c>
+      <c r="I145">
+        <v>1.56229</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -79840,6 +80519,9 @@
       <c r="H146">
         <v>0.07117</v>
       </c>
+      <c r="I146">
+        <v>0.07117</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -79876,6 +80558,9 @@
       <c r="H147">
         <v>1.98162</v>
       </c>
+      <c r="I147">
+        <v>1.98162</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -79912,6 +80597,9 @@
       <c r="H148">
         <v>0.1009</v>
       </c>
+      <c r="I148">
+        <v>0.1009</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -79948,6 +80636,9 @@
       <c r="H149">
         <v>1.95383</v>
       </c>
+      <c r="I149">
+        <v>1.95383</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -79984,6 +80675,9 @@
       <c r="H150">
         <v>1.37234</v>
       </c>
+      <c r="I150">
+        <v>1.37234</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -80020,6 +80714,9 @@
       <c r="H151">
         <v>1.38115</v>
       </c>
+      <c r="I151">
+        <v>1.38115</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -80056,6 +80753,9 @@
       <c r="H152">
         <v>0.1838</v>
       </c>
+      <c r="I152">
+        <v>0.1838</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -80092,6 +80792,9 @@
       <c r="H153">
         <v>5.21828</v>
       </c>
+      <c r="I153">
+        <v>5.21828</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -80128,6 +80831,9 @@
       <c r="H154">
         <v>0.41581</v>
       </c>
+      <c r="I154">
+        <v>0.41581</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -80164,6 +80870,9 @@
       <c r="H155">
         <v>0.16036</v>
       </c>
+      <c r="I155">
+        <v>0.16036</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -80200,6 +80909,9 @@
       <c r="H156">
         <v>5.21828</v>
       </c>
+      <c r="I156">
+        <v>5.21828</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -80236,6 +80948,9 @@
       <c r="H157">
         <v>0.47441</v>
       </c>
+      <c r="I157">
+        <v>0.47441</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -80272,6 +80987,9 @@
       <c r="H158">
         <v>0.06415</v>
       </c>
+      <c r="I158">
+        <v>0.06415</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -80308,6 +81026,9 @@
       <c r="H159">
         <v>4.73076</v>
       </c>
+      <c r="I159">
+        <v>4.73076</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -80344,6 +81065,9 @@
       <c r="H160">
         <v>0.5222599999999999</v>
       </c>
+      <c r="I160">
+        <v>0.5222599999999999</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -80380,6 +81104,9 @@
       <c r="H161">
         <v>0.57141</v>
       </c>
+      <c r="I161">
+        <v>0.57141</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -80416,6 +81143,9 @@
       <c r="H162">
         <v>2.06429</v>
       </c>
+      <c r="I162">
+        <v>2.06429</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -80452,6 +81182,9 @@
       <c r="H163">
         <v>0.11131</v>
       </c>
+      <c r="I163">
+        <v>0.11131</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -80488,6 +81221,9 @@
       <c r="H164">
         <v>0.67071</v>
       </c>
+      <c r="I164">
+        <v>0.67071</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -80524,6 +81260,9 @@
       <c r="H165">
         <v>2.06429</v>
       </c>
+      <c r="I165">
+        <v>2.06429</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -80560,6 +81299,9 @@
       <c r="H166">
         <v>0.11131</v>
       </c>
+      <c r="I166">
+        <v>0.11131</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -80596,6 +81338,9 @@
       <c r="H167">
         <v>0.57141</v>
       </c>
+      <c r="I167">
+        <v>0.57141</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -80632,6 +81377,9 @@
       <c r="H168">
         <v>3.15758</v>
       </c>
+      <c r="I168">
+        <v>3.15758</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -80668,6 +81416,9 @@
       <c r="H169">
         <v>0.11131</v>
       </c>
+      <c r="I169">
+        <v>0.11131</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -80704,6 +81455,9 @@
       <c r="H170">
         <v>3.97238</v>
       </c>
+      <c r="I170">
+        <v>3.97238</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -80740,6 +81494,9 @@
       <c r="H171">
         <v>0.41518</v>
       </c>
+      <c r="I171">
+        <v>0.41518</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -80776,6 +81533,9 @@
       <c r="H172">
         <v>0.05238</v>
       </c>
+      <c r="I172">
+        <v>0.05238</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -80812,6 +81572,9 @@
       <c r="H173">
         <v>0.08194</v>
       </c>
+      <c r="I173">
+        <v>0.08194</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -80840,12 +81603,15 @@
         </is>
       </c>
       <c r="F174">
+        <v>0.007142857142857144</v>
+      </c>
+      <c r="G174">
         <v>0.01428571428571429</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>0.0136986301369863</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>0.01333333333333333</v>
       </c>
     </row>
@@ -80876,12 +81642,15 @@
         </is>
       </c>
       <c r="F175">
+        <v>1.421428571428571</v>
+      </c>
+      <c r="G175">
         <v>1.428571428571429</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>1.36986301369863</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>1.333333333333333</v>
       </c>
     </row>
@@ -80912,12 +81681,15 @@
         </is>
       </c>
       <c r="F176">
+        <v>0.3317152103559871</v>
+      </c>
+      <c r="G176">
         <v>0.3155339805825243</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>0.2912621359223301</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>0.2669902912621359</v>
       </c>
     </row>
@@ -80956,6 +81728,9 @@
       <c r="H177">
         <v>0.01808318264014467</v>
       </c>
+      <c r="I177">
+        <v>0.01808318264014467</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -80992,6 +81767,9 @@
       <c r="H178">
         <v>1.157323688969259</v>
       </c>
+      <c r="I178">
+        <v>1.157323688969259</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -81028,6 +81806,9 @@
       <c r="H179">
         <v>0.2531645569620253</v>
       </c>
+      <c r="I179">
+        <v>0.2531645569620253</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -81064,6 +81845,9 @@
       <c r="H180">
         <v>7.314599040438658</v>
       </c>
+      <c r="I180">
+        <v>7.314599040438658</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -81100,6 +81884,9 @@
       <c r="H181">
         <v>0.3652392947103274</v>
       </c>
+      <c r="I181">
+        <v>0.3652392947103274</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -81134,6 +81921,9 @@
         <v>0.5793450881612091</v>
       </c>
       <c r="H182">
+        <v>0.5793450881612091</v>
+      </c>
+      <c r="I182">
         <v>0.5793450881612091</v>
       </c>
     </row>
@@ -83159,7 +83949,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -83193,15 +83983,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2040</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
@@ -83242,6 +84037,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -83278,6 +84076,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -83314,6 +84115,9 @@
       <c r="H4">
         <v>0.438</v>
       </c>
+      <c r="I4">
+        <v>0.438</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -83350,6 +84154,9 @@
       <c r="H5">
         <v>0.533</v>
       </c>
+      <c r="I5">
+        <v>0.533</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -83386,6 +84193,9 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -83422,6 +84232,9 @@
       <c r="H7">
         <v>0.516</v>
       </c>
+      <c r="I7">
+        <v>0.516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -83458,6 +84271,9 @@
       <c r="H8">
         <v>0.448</v>
       </c>
+      <c r="I8">
+        <v>0.448</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -83494,6 +84310,9 @@
       <c r="H9">
         <v>0.457</v>
       </c>
+      <c r="I9">
+        <v>0.457</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -83530,6 +84349,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -83566,6 +84388,9 @@
       <c r="H11">
         <v>0.65</v>
       </c>
+      <c r="I11">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -83602,6 +84427,9 @@
       <c r="H12">
         <v>0.53</v>
       </c>
+      <c r="I12">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -83638,6 +84466,9 @@
       <c r="H13">
         <v>0.706</v>
       </c>
+      <c r="I13">
+        <v>0.706</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -83674,6 +84505,9 @@
       <c r="H14">
         <v>0.665</v>
       </c>
+      <c r="I14">
+        <v>0.665</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -83710,6 +84544,9 @@
       <c r="H15">
         <v>0.334</v>
       </c>
+      <c r="I15">
+        <v>0.334</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -83746,6 +84583,9 @@
       <c r="H16">
         <v>0.329</v>
       </c>
+      <c r="I16">
+        <v>0.329</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -83782,6 +84622,9 @@
       <c r="H17">
         <v>0.291</v>
       </c>
+      <c r="I17">
+        <v>0.291</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -83818,6 +84661,9 @@
       <c r="H18">
         <v>0.442</v>
       </c>
+      <c r="I18">
+        <v>0.442</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -83854,6 +84700,9 @@
       <c r="H19">
         <v>0.391</v>
       </c>
+      <c r="I19">
+        <v>0.391</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -83890,6 +84739,9 @@
       <c r="H20">
         <v>0.344</v>
       </c>
+      <c r="I20">
+        <v>0.344</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -83926,6 +84778,9 @@
       <c r="H21">
         <v>0.367</v>
       </c>
+      <c r="I21">
+        <v>0.367</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -83962,6 +84817,9 @@
       <c r="H22">
         <v>0.352</v>
       </c>
+      <c r="I22">
+        <v>0.352</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -83998,6 +84856,9 @@
       <c r="H23">
         <v>0.545</v>
       </c>
+      <c r="I23">
+        <v>0.545</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -84034,6 +84895,9 @@
       <c r="H24">
         <v>0.532</v>
       </c>
+      <c r="I24">
+        <v>0.532</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -84070,6 +84934,9 @@
       <c r="H25">
         <v>0</v>
       </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -84106,6 +84973,9 @@
       <c r="H26">
         <v>0.015</v>
       </c>
+      <c r="I26">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -84142,6 +85012,9 @@
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -84178,6 +85051,9 @@
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -84214,6 +85090,9 @@
       <c r="H29">
         <v>0</v>
       </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -84250,6 +85129,9 @@
       <c r="H30">
         <v>0.443</v>
       </c>
+      <c r="I30">
+        <v>0.443</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -84286,6 +85168,9 @@
       <c r="H31">
         <v>0</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -84322,6 +85207,9 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -84358,6 +85246,9 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -84394,6 +85285,9 @@
       <c r="H34">
         <v>1.002</v>
       </c>
+      <c r="I34">
+        <v>1.002</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -84430,6 +85324,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -84466,6 +85363,9 @@
       <c r="H36">
         <v>0.132</v>
       </c>
+      <c r="I36">
+        <v>0.132</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -84502,6 +85402,9 @@
       <c r="H37">
         <v>0</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -84538,6 +85441,9 @@
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -84574,6 +85480,9 @@
       <c r="H39">
         <v>0.528</v>
       </c>
+      <c r="I39">
+        <v>0.528</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -84610,6 +85519,9 @@
       <c r="H40">
         <v>0</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -84646,6 +85558,9 @@
       <c r="H41">
         <v>1.42</v>
       </c>
+      <c r="I41">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -84682,6 +85597,9 @@
       <c r="H42">
         <v>1.779</v>
       </c>
+      <c r="I42">
+        <v>1.779</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -84718,6 +85636,9 @@
       <c r="H43">
         <v>1.42</v>
       </c>
+      <c r="I43">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -84754,6 +85675,9 @@
       <c r="H44">
         <v>1.602</v>
       </c>
+      <c r="I44">
+        <v>1.602</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -84790,6 +85714,9 @@
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -84826,6 +85753,9 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -84862,6 +85792,9 @@
       <c r="H47">
         <v>0</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -84898,6 +85831,9 @@
       <c r="H48">
         <v>0.097</v>
       </c>
+      <c r="I48">
+        <v>0.097</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -84934,6 +85870,9 @@
       <c r="H49">
         <v>0</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -84970,6 +85909,9 @@
       <c r="H50">
         <v>0.021</v>
       </c>
+      <c r="I50">
+        <v>0.021</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -85006,6 +85948,9 @@
       <c r="H51">
         <v>0</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -85042,6 +85987,9 @@
       <c r="H52">
         <v>0.021</v>
       </c>
+      <c r="I52">
+        <v>0.021</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -85078,6 +86026,9 @@
       <c r="H53">
         <v>0</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -85114,6 +86065,9 @@
       <c r="H54">
         <v>0.183</v>
       </c>
+      <c r="I54">
+        <v>0.183</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -85150,6 +86104,9 @@
       <c r="H55">
         <v>0</v>
       </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -85186,6 +86143,9 @@
       <c r="H56">
         <v>0.066</v>
       </c>
+      <c r="I56">
+        <v>0.066</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -85222,6 +86182,9 @@
       <c r="H57">
         <v>0.066</v>
       </c>
+      <c r="I57">
+        <v>0.066</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -85258,6 +86221,9 @@
       <c r="H58">
         <v>0</v>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -85294,6 +86260,9 @@
       <c r="H59">
         <v>0.14</v>
       </c>
+      <c r="I59">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -85330,6 +86299,9 @@
       <c r="H60">
         <v>0</v>
       </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -85366,6 +86338,9 @@
       <c r="H61">
         <v>0.052</v>
       </c>
+      <c r="I61">
+        <v>0.052</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -85402,6 +86377,9 @@
       <c r="H62">
         <v>0</v>
       </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -85438,6 +86416,9 @@
       <c r="H63">
         <v>0.052</v>
       </c>
+      <c r="I63">
+        <v>0.052</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -85474,6 +86455,9 @@
       <c r="H64">
         <v>0</v>
       </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -85510,6 +86494,9 @@
       <c r="H65">
         <v>0</v>
       </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -85546,6 +86533,9 @@
       <c r="H66">
         <v>0.017</v>
       </c>
+      <c r="I66">
+        <v>0.017</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -85582,6 +86572,9 @@
       <c r="H67">
         <v>0</v>
       </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -85618,6 +86611,9 @@
       <c r="H68">
         <v>0</v>
       </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -85654,6 +86650,9 @@
       <c r="H69">
         <v>0.045</v>
       </c>
+      <c r="I69">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -85690,6 +86689,9 @@
       <c r="H70">
         <v>0.029</v>
       </c>
+      <c r="I70">
+        <v>0.029</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -85726,6 +86728,9 @@
       <c r="H71">
         <v>0</v>
       </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -85762,6 +86767,9 @@
       <c r="H72">
         <v>1.369</v>
       </c>
+      <c r="I72">
+        <v>1.369</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -85798,6 +86806,9 @@
       <c r="H73">
         <v>1.333</v>
       </c>
+      <c r="I73">
+        <v>1.333</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -85834,6 +86845,9 @@
       <c r="H74">
         <v>0</v>
       </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -85870,6 +86884,9 @@
       <c r="H75">
         <v>0.586</v>
       </c>
+      <c r="I75">
+        <v>0.586</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -85906,6 +86923,9 @@
       <c r="H76">
         <v>0</v>
       </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -85942,6 +86962,9 @@
       <c r="H77">
         <v>0</v>
       </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -85978,6 +87001,9 @@
       <c r="H78">
         <v>0</v>
       </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -86014,6 +87040,9 @@
       <c r="H79">
         <v>0</v>
       </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -86048,6 +87077,9 @@
         <v>0</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
     </row>
@@ -86058,7 +87090,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -86092,15 +87124,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2040</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
@@ -86141,6 +87178,9 @@
       <c r="H2">
         <v>0.49818</v>
       </c>
+      <c r="I2">
+        <v>0.49818</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -86177,6 +87217,9 @@
       <c r="H3">
         <v>0.524</v>
       </c>
+      <c r="I3">
+        <v>0.524</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -86213,6 +87256,9 @@
       <c r="H4">
         <v>0.08599999999999999</v>
       </c>
+      <c r="I4">
+        <v>0.08599999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -86249,6 +87295,9 @@
       <c r="H5">
         <v>0.083</v>
       </c>
+      <c r="I5">
+        <v>0.083</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -86285,6 +87334,9 @@
       <c r="H6">
         <v>0.535</v>
       </c>
+      <c r="I6">
+        <v>0.535</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -86321,6 +87373,9 @@
       <c r="H7">
         <v>0.129</v>
       </c>
+      <c r="I7">
+        <v>0.129</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -86357,6 +87412,9 @@
       <c r="H8">
         <v>0.08799999999999999</v>
       </c>
+      <c r="I8">
+        <v>0.08799999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -86393,6 +87451,9 @@
       <c r="H9">
         <v>0.075</v>
       </c>
+      <c r="I9">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -86429,6 +87490,9 @@
       <c r="H10">
         <v>0.342</v>
       </c>
+      <c r="I10">
+        <v>0.342</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -86465,6 +87529,9 @@
       <c r="H11">
         <v>-0.308</v>
       </c>
+      <c r="I11">
+        <v>-0.308</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -86501,6 +87568,9 @@
       <c r="H12">
         <v>-0.188</v>
       </c>
+      <c r="I12">
+        <v>-0.188</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -86537,6 +87607,9 @@
       <c r="H13">
         <v>0.02</v>
       </c>
+      <c r="I13">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -86573,6 +87646,9 @@
       <c r="H14">
         <v>0.014</v>
       </c>
+      <c r="I14">
+        <v>0.014</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -86609,6 +87685,9 @@
       <c r="H15">
         <v>0.065</v>
       </c>
+      <c r="I15">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -86645,6 +87724,9 @@
       <c r="H16">
         <v>0.082</v>
       </c>
+      <c r="I16">
+        <v>0.082</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -86681,6 +87763,9 @@
       <c r="H17">
         <v>0.057</v>
       </c>
+      <c r="I17">
+        <v>0.057</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -86717,6 +87802,9 @@
       <c r="H18">
         <v>0.066</v>
       </c>
+      <c r="I18">
+        <v>0.066</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -86753,6 +87841,9 @@
       <c r="H19">
         <v>0.098</v>
       </c>
+      <c r="I19">
+        <v>0.098</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -86789,6 +87880,9 @@
       <c r="H20">
         <v>0.067</v>
       </c>
+      <c r="I20">
+        <v>0.067</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -86825,6 +87919,9 @@
       <c r="H21">
         <v>0.068</v>
       </c>
+      <c r="I21">
+        <v>0.068</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -86861,6 +87958,9 @@
       <c r="H22">
         <v>0.056</v>
       </c>
+      <c r="I22">
+        <v>0.056</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -86897,6 +87997,9 @@
       <c r="H23">
         <v>0.01</v>
       </c>
+      <c r="I23">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -86933,6 +88036,9 @@
       <c r="H24">
         <v>0.004</v>
       </c>
+      <c r="I24">
+        <v>0.004</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -86969,6 +88075,9 @@
       <c r="H25">
         <v>0.016</v>
       </c>
+      <c r="I25">
+        <v>0.016</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -87005,6 +88114,9 @@
       <c r="H26">
         <v>0.002</v>
       </c>
+      <c r="I26">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -87041,6 +88153,9 @@
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -87077,6 +88192,9 @@
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -87113,6 +88231,9 @@
       <c r="H29">
         <v>0.459</v>
       </c>
+      <c r="I29">
+        <v>0.459</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -87149,6 +88270,9 @@
       <c r="H30">
         <v>0.049</v>
       </c>
+      <c r="I30">
+        <v>0.049</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -87185,6 +88309,9 @@
       <c r="H31">
         <v>0</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -87221,6 +88348,9 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -87257,6 +88387,9 @@
       <c r="H33">
         <v>0.967</v>
       </c>
+      <c r="I33">
+        <v>0.967</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -87293,6 +88426,9 @@
       <c r="H34">
         <v>0.111</v>
       </c>
+      <c r="I34">
+        <v>0.111</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -87329,6 +88465,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -87365,6 +88504,9 @@
       <c r="H36">
         <v>0.015</v>
       </c>
+      <c r="I36">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -87401,6 +88543,9 @@
       <c r="H37">
         <v>0</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -87437,6 +88582,9 @@
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -87473,6 +88621,9 @@
       <c r="H39">
         <v>0.059</v>
       </c>
+      <c r="I39">
+        <v>0.059</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -87509,6 +88660,9 @@
       <c r="H40">
         <v>1.742</v>
       </c>
+      <c r="I40">
+        <v>1.742</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -87545,6 +88699,9 @@
       <c r="H41">
         <v>0.322</v>
       </c>
+      <c r="I41">
+        <v>0.322</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -87581,6 +88738,9 @@
       <c r="H42">
         <v>0.04</v>
       </c>
+      <c r="I42">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -87617,6 +88777,9 @@
       <c r="H43">
         <v>0.202</v>
       </c>
+      <c r="I43">
+        <v>0.202</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -87653,6 +88816,9 @@
       <c r="H44">
         <v>0.02</v>
       </c>
+      <c r="I44">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -87689,6 +88855,9 @@
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -87725,6 +88894,9 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -87761,6 +88933,9 @@
       <c r="H47">
         <v>0.338</v>
       </c>
+      <c r="I47">
+        <v>0.338</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -87797,6 +88972,9 @@
       <c r="H48">
         <v>0.011</v>
       </c>
+      <c r="I48">
+        <v>0.011</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -87833,6 +89011,9 @@
       <c r="H49">
         <v>0.073</v>
       </c>
+      <c r="I49">
+        <v>0.073</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -87869,6 +89050,9 @@
       <c r="H50">
         <v>0.002</v>
       </c>
+      <c r="I50">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -87905,6 +89089,9 @@
       <c r="H51">
         <v>0.073</v>
       </c>
+      <c r="I51">
+        <v>0.073</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -87941,6 +89128,9 @@
       <c r="H52">
         <v>0.002</v>
       </c>
+      <c r="I52">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -87977,6 +89167,9 @@
       <c r="H53">
         <v>0.634</v>
       </c>
+      <c r="I53">
+        <v>0.634</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -88013,6 +89206,9 @@
       <c r="H54">
         <v>0.02</v>
       </c>
+      <c r="I54">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -88049,6 +89245,9 @@
       <c r="H55">
         <v>0.227</v>
       </c>
+      <c r="I55">
+        <v>0.227</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -88085,6 +89284,9 @@
       <c r="H56">
         <v>0.007</v>
       </c>
+      <c r="I56">
+        <v>0.007</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -88121,6 +89323,9 @@
       <c r="H57">
         <v>0.007</v>
       </c>
+      <c r="I57">
+        <v>0.007</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -88157,6 +89362,9 @@
       <c r="H58">
         <v>0.487</v>
       </c>
+      <c r="I58">
+        <v>0.487</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -88193,6 +89401,9 @@
       <c r="H59">
         <v>0.016</v>
       </c>
+      <c r="I59">
+        <v>0.016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -88229,6 +89440,9 @@
       <c r="H60">
         <v>0.182</v>
       </c>
+      <c r="I60">
+        <v>0.182</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -88265,6 +89479,9 @@
       <c r="H61">
         <v>0.006</v>
       </c>
+      <c r="I61">
+        <v>0.006</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -88301,6 +89518,9 @@
       <c r="H62">
         <v>0.182</v>
       </c>
+      <c r="I62">
+        <v>0.182</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -88337,6 +89557,9 @@
       <c r="H63">
         <v>0.006</v>
       </c>
+      <c r="I63">
+        <v>0.006</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -88373,6 +89596,9 @@
       <c r="H64">
         <v>0.019</v>
       </c>
+      <c r="I64">
+        <v>0.019</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -88409,6 +89635,9 @@
       <c r="H65">
         <v>0.016</v>
       </c>
+      <c r="I65">
+        <v>0.016</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -88445,6 +89674,9 @@
       <c r="H66">
         <v>0.002</v>
       </c>
+      <c r="I66">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -88481,6 +89713,9 @@
       <c r="H67">
         <v>0</v>
       </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -88517,6 +89752,9 @@
       <c r="H68">
         <v>0</v>
       </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -88553,6 +89791,9 @@
       <c r="H69">
         <v>0.005</v>
       </c>
+      <c r="I69">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -88589,6 +89830,9 @@
       <c r="H70">
         <v>0.003</v>
       </c>
+      <c r="I70">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -88625,6 +89869,9 @@
       <c r="H71">
         <v>2.002</v>
       </c>
+      <c r="I71">
+        <v>2.002</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -88661,6 +89908,9 @@
       <c r="H72">
         <v>0.79</v>
       </c>
+      <c r="I72">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -88697,6 +89947,9 @@
       <c r="H73">
         <v>0.781</v>
       </c>
+      <c r="I73">
+        <v>0.781</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -88733,6 +89986,9 @@
       <c r="H74">
         <v>0.651</v>
       </c>
+      <c r="I74">
+        <v>0.651</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -88769,6 +90025,9 @@
       <c r="H75">
         <v>0.065</v>
       </c>
+      <c r="I75">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -88805,6 +90064,9 @@
       <c r="H76">
         <v>0.193</v>
       </c>
+      <c r="I76">
+        <v>0.193</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -88841,6 +90103,9 @@
       <c r="H77">
         <v>0</v>
       </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -88877,6 +90142,9 @@
       <c r="H78">
         <v>0.04</v>
       </c>
+      <c r="I78">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -88913,6 +90181,9 @@
       <c r="H79">
         <v>0</v>
       </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -88947,6 +90218,9 @@
         <v>0</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
     </row>
@@ -88957,7 +90231,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -88991,15 +90265,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2040</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
@@ -89032,13 +90311,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>45.139</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="G2">
-        <v>45.139</v>
+        <v>61.99793015271469</v>
       </c>
       <c r="H2">
-        <v>45.139</v>
+        <v>75.57513090738392</v>
+      </c>
+      <c r="I2">
+        <v>92.12566286647433</v>
       </c>
     </row>
     <row r="3">
@@ -89068,13 +90350,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>45.139</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="G3">
-        <v>45.139</v>
+        <v>61.99793015271469</v>
       </c>
       <c r="H3">
-        <v>45.139</v>
+        <v>75.57513090738392</v>
+      </c>
+      <c r="I3">
+        <v>92.12566286647433</v>
       </c>
     </row>
     <row r="4">
@@ -89104,13 +90389,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>315.972</v>
+        <v>393.0728043834692</v>
       </c>
       <c r="G4">
-        <v>315.972</v>
+        <v>433.9841375797772</v>
       </c>
       <c r="H4">
-        <v>315.972</v>
+        <v>529.0242420759855</v>
+      </c>
+      <c r="I4">
+        <v>644.8775991325821</v>
       </c>
     </row>
     <row r="5">
@@ -89140,13 +90428,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>225.694</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="G5">
-        <v>225.694</v>
+        <v>309.9882772743478</v>
       </c>
       <c r="H5">
-        <v>225.694</v>
+        <v>377.8739802612176</v>
+      </c>
+      <c r="I5">
+        <v>460.6262733996334</v>
       </c>
     </row>
     <row r="6">
@@ -89176,13 +90467,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>45.139</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="G6">
-        <v>45.139</v>
+        <v>61.99793015271469</v>
       </c>
       <c r="H6">
-        <v>45.139</v>
+        <v>75.57513090738392</v>
+      </c>
+      <c r="I6">
+        <v>92.12566286647433</v>
       </c>
     </row>
     <row r="7">
@@ -89212,13 +90506,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>75.23099999999999</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="G7">
-        <v>75.23099999999999</v>
+        <v>103.3289679283741</v>
       </c>
       <c r="H7">
-        <v>75.23099999999999</v>
+        <v>125.9574353285052</v>
+      </c>
+      <c r="I7">
+        <v>153.5414108222984</v>
       </c>
     </row>
     <row r="8">
@@ -89248,13 +90545,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>331.019</v>
+        <v>411.7914455528071</v>
       </c>
       <c r="G8">
-        <v>331.019</v>
+        <v>454.6510299568324</v>
       </c>
       <c r="H8">
-        <v>331.019</v>
+        <v>554.217068562248</v>
+      </c>
+      <c r="I8">
+        <v>675.5875140432322</v>
       </c>
     </row>
     <row r="9">
@@ -89284,13 +90584,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>225.694</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="G9">
-        <v>225.694</v>
+        <v>309.9882772743478</v>
       </c>
       <c r="H9">
-        <v>225.694</v>
+        <v>377.8739802612176</v>
+      </c>
+      <c r="I9">
+        <v>460.6262733996334</v>
       </c>
     </row>
     <row r="10">
@@ -89320,13 +90623,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>45.139</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="G10">
-        <v>45.139</v>
+        <v>61.99793015271469</v>
       </c>
       <c r="H10">
-        <v>45.139</v>
+        <v>75.57513090738392</v>
+      </c>
+      <c r="I10">
+        <v>92.12566286647433</v>
       </c>
     </row>
     <row r="11">
@@ -89356,13 +90662,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>75.23099999999999</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="G11">
-        <v>75.23099999999999</v>
+        <v>103.3289679283741</v>
       </c>
       <c r="H11">
-        <v>75.23099999999999</v>
+        <v>125.9574353285052</v>
+      </c>
+      <c r="I11">
+        <v>153.5414108222984</v>
       </c>
     </row>
     <row r="12">
@@ -89392,13 +90701,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>376.157</v>
+        <v>467.9436370262955</v>
       </c>
       <c r="G12">
-        <v>376.157</v>
+        <v>516.6475866203216</v>
       </c>
       <c r="H12">
-        <v>376.157</v>
+        <v>629.7905251939301</v>
+      </c>
+      <c r="I12">
+        <v>767.7111359769685</v>
       </c>
     </row>
     <row r="13">
@@ -89428,13 +90740,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>60.185</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="G13">
-        <v>60.185</v>
+        <v>82.66344904054438</v>
       </c>
       <c r="H13">
-        <v>60.185</v>
+        <v>100.7662831179446</v>
+      </c>
+      <c r="I13">
+        <v>122.8335368443864</v>
       </c>
     </row>
     <row r="14">
@@ -89464,13 +90779,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>240.741</v>
+        <v>299.4845745828135</v>
       </c>
       <c r="G14">
-        <v>240.741</v>
+        <v>330.6551696514031</v>
       </c>
       <c r="H14">
-        <v>240.741</v>
+        <v>403.0668067474802</v>
+      </c>
+      <c r="I14">
+        <v>491.3361883102836</v>
       </c>
     </row>
     <row r="15">
@@ -89500,13 +90818,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>255.787</v>
+        <v>318.201971740643</v>
       </c>
       <c r="G15">
-        <v>255.787</v>
+        <v>351.3206885392328</v>
       </c>
       <c r="H15">
-        <v>255.787</v>
+        <v>428.2579589580409</v>
+      </c>
+      <c r="I15">
+        <v>522.0440622881957</v>
       </c>
     </row>
     <row r="16">
@@ -89536,13 +90857,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>60.185</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="G16">
-        <v>60.185</v>
+        <v>82.66344904054438</v>
       </c>
       <c r="H16">
-        <v>60.185</v>
+        <v>100.7662831179446</v>
+      </c>
+      <c r="I16">
+        <v>122.8335368443864</v>
       </c>
     </row>
     <row r="17">
@@ -89572,13 +90896,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>225.694</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="G17">
-        <v>225.694</v>
+        <v>309.9882772743478</v>
       </c>
       <c r="H17">
-        <v>225.694</v>
+        <v>377.8739802612176</v>
+      </c>
+      <c r="I17">
+        <v>460.6262733996334</v>
       </c>
     </row>
     <row r="18">
@@ -89608,13 +90935,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>180.556</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="G18">
-        <v>180.556</v>
+        <v>247.9917206108587</v>
       </c>
       <c r="H18">
-        <v>180.556</v>
+        <v>302.3005236295357</v>
+      </c>
+      <c r="I18">
+        <v>368.5026514658973</v>
       </c>
     </row>
     <row r="19">
@@ -89644,13 +90974,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>60.185</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="G19">
-        <v>60.185</v>
+        <v>82.66344904054438</v>
       </c>
       <c r="H19">
-        <v>60.185</v>
+        <v>100.7662831179446</v>
+      </c>
+      <c r="I19">
+        <v>122.8335368443864</v>
       </c>
     </row>
     <row r="20">
@@ -89680,13 +91013,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>255.787</v>
+        <v>318.201971740643</v>
       </c>
       <c r="G20">
-        <v>255.787</v>
+        <v>351.3206885392328</v>
       </c>
       <c r="H20">
-        <v>255.787</v>
+        <v>428.2579589580409</v>
+      </c>
+      <c r="I20">
+        <v>522.0440622881957</v>
       </c>
     </row>
     <row r="21">
@@ -89716,13 +91052,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>60.185</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="G21">
-        <v>60.185</v>
+        <v>82.66344904054438</v>
       </c>
       <c r="H21">
-        <v>60.185</v>
+        <v>100.7662831179446</v>
+      </c>
+      <c r="I21">
+        <v>122.8335368443864</v>
       </c>
     </row>
     <row r="22">
@@ -89752,13 +91091,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>180.556</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="G22">
-        <v>180.556</v>
+        <v>247.9917206108587</v>
       </c>
       <c r="H22">
-        <v>180.556</v>
+        <v>302.3005236295357</v>
+      </c>
+      <c r="I22">
+        <v>368.5026514658973</v>
       </c>
     </row>
     <row r="23">
@@ -89788,13 +91130,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>60.185</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="G23">
-        <v>60.185</v>
+        <v>82.66344904054438</v>
       </c>
       <c r="H23">
-        <v>60.185</v>
+        <v>100.7662831179446</v>
+      </c>
+      <c r="I23">
+        <v>122.8335368443864</v>
       </c>
     </row>
     <row r="24">
@@ -89824,13 +91169,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>180.556</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="G24">
-        <v>180.556</v>
+        <v>247.9917206108587</v>
       </c>
       <c r="H24">
-        <v>180.556</v>
+        <v>302.3005236295357</v>
+      </c>
+      <c r="I24">
+        <v>368.5026514658973</v>
       </c>
     </row>
     <row r="25">
@@ -89860,13 +91208,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>556.713</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="G25">
-        <v>556.713</v>
+        <v>764.6393072311801</v>
       </c>
       <c r="H25">
-        <v>556.713</v>
+        <v>932.0910488234655</v>
+      </c>
+      <c r="I25">
+        <v>1136.213787442865</v>
       </c>
     </row>
     <row r="26">
@@ -89896,13 +91247,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>556.713</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="G26">
-        <v>556.713</v>
+        <v>764.6393072311801</v>
       </c>
       <c r="H26">
-        <v>556.713</v>
+        <v>932.0910488234655</v>
+      </c>
+      <c r="I26">
+        <v>1136.213787442865</v>
       </c>
     </row>
     <row r="27">
@@ -89932,13 +91286,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>556.713</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="G27">
-        <v>556.713</v>
+        <v>764.6393072311801</v>
       </c>
       <c r="H27">
-        <v>556.713</v>
+        <v>932.0910488234655</v>
+      </c>
+      <c r="I27">
+        <v>1136.213787442865</v>
       </c>
     </row>
     <row r="28">
@@ -89968,13 +91325,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>556.713</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="G28">
-        <v>556.713</v>
+        <v>764.6393072311801</v>
       </c>
       <c r="H28">
-        <v>556.713</v>
+        <v>932.0910488234655</v>
+      </c>
+      <c r="I28">
+        <v>1136.213787442865</v>
       </c>
     </row>
     <row r="29">
@@ -90004,13 +91364,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>1685.185</v>
+        <v>2096.389534056677</v>
       </c>
       <c r="G29">
-        <v>1685.185</v>
+        <v>2314.58344058137</v>
       </c>
       <c r="H29">
-        <v>1685.185</v>
+        <v>2821.464298680957</v>
+      </c>
+      <c r="I29">
+        <v>3439.349236306508</v>
       </c>
     </row>
     <row r="30">
@@ -90040,13 +91403,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>1805.556</v>
+        <v>2246.132443353839</v>
       </c>
       <c r="G30">
-        <v>1805.556</v>
+        <v>2479.911712151685</v>
       </c>
       <c r="H30">
-        <v>1805.556</v>
+        <v>3022.998539192549</v>
+      </c>
+      <c r="I30">
+        <v>3685.01835092802</v>
       </c>
     </row>
     <row r="31">
@@ -90076,13 +91442,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>1730.324</v>
+        <v>2152.542969541675</v>
       </c>
       <c r="G31">
-        <v>1730.324</v>
+        <v>2376.581370734085</v>
       </c>
       <c r="H31">
-        <v>1730.324</v>
+        <v>2897.039429588342</v>
+      </c>
+      <c r="I31">
+        <v>3531.474899172983</v>
       </c>
     </row>
     <row r="32">
@@ -90112,13 +91481,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>1670.139</v>
+        <v>2077.672136898848</v>
       </c>
       <c r="G32">
-        <v>1670.139</v>
+        <v>2293.917921693541</v>
       </c>
       <c r="H32">
-        <v>1670.139</v>
+        <v>2796.273146470397</v>
+      </c>
+      <c r="I32">
+        <v>3408.641362328597</v>
       </c>
     </row>
     <row r="33">
@@ -90148,13 +91520,16 @@
         </is>
       </c>
       <c r="F33">
-        <v>827.546</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="G33">
-        <v>827.546</v>
+        <v>1136.625514658243</v>
       </c>
       <c r="H33">
-        <v>827.546</v>
+        <v>1385.540159992067</v>
+      </c>
+      <c r="I33">
+        <v>1688.965723708973</v>
       </c>
     </row>
     <row r="34">
@@ -90184,13 +91559,16 @@
         </is>
       </c>
       <c r="F34">
-        <v>1324.074</v>
+        <v>1647.163294188212</v>
       </c>
       <c r="G34">
-        <v>1324.074</v>
+        <v>1818.601372848879</v>
       </c>
       <c r="H34">
-        <v>1324.074</v>
+        <v>2216.864925697588</v>
+      </c>
+      <c r="I34">
+        <v>2702.345974307453</v>
       </c>
     </row>
     <row r="35">
@@ -90220,13 +91598,16 @@
         </is>
       </c>
       <c r="F35">
-        <v>827.546</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="G35">
-        <v>827.546</v>
+        <v>1136.625514658243</v>
       </c>
       <c r="H35">
-        <v>827.546</v>
+        <v>1385.540159992067</v>
+      </c>
+      <c r="I35">
+        <v>1688.965723708973</v>
       </c>
     </row>
     <row r="36">
@@ -90256,13 +91637,16 @@
         </is>
       </c>
       <c r="F36">
-        <v>255.787</v>
+        <v>318.201971740643</v>
       </c>
       <c r="G36">
-        <v>255.787</v>
+        <v>351.3206885392328</v>
       </c>
       <c r="H36">
-        <v>255.787</v>
+        <v>428.2579589580409</v>
+      </c>
+      <c r="I36">
+        <v>522.0440622881957</v>
       </c>
     </row>
     <row r="37">
@@ -90292,13 +91676,16 @@
         </is>
       </c>
       <c r="F37">
-        <v>3701.389</v>
+        <v>4604.570513666162</v>
       </c>
       <c r="G37">
-        <v>3701.389</v>
+        <v>5083.817911119572</v>
       </c>
       <c r="H37">
-        <v>3701.389</v>
+        <v>6197.145665924162</v>
+      </c>
+      <c r="I37">
+        <v>7554.285986656249</v>
       </c>
     </row>
     <row r="38">
@@ -90328,13 +91715,16 @@
         </is>
       </c>
       <c r="F38">
-        <v>1760.417</v>
+        <v>2189.979007868842</v>
       </c>
       <c r="G38">
-        <v>1760.417</v>
+        <v>2417.91378199897</v>
       </c>
       <c r="H38">
-        <v>1760.417</v>
+        <v>2947.423408285165</v>
+      </c>
+      <c r="I38">
+        <v>3592.892688061546</v>
       </c>
     </row>
     <row r="39">
@@ -90364,13 +91754,16 @@
         </is>
       </c>
       <c r="F39">
-        <v>13255.788</v>
+        <v>16490.35282706296</v>
       </c>
       <c r="G39">
-        <v>13255.788</v>
+        <v>18206.68199435507</v>
       </c>
       <c r="H39">
-        <v>13255.788</v>
+        <v>22193.84375773785</v>
+      </c>
+      <c r="I39">
+        <v>27054.17169891792</v>
       </c>
     </row>
     <row r="40">
@@ -90400,13 +91793,16 @@
         </is>
       </c>
       <c r="F40">
-        <v>1910.88</v>
+        <v>2377.156711481662</v>
       </c>
       <c r="G40">
-        <v>1910.88</v>
+        <v>2624.573091344944</v>
       </c>
       <c r="H40">
-        <v>1910.88</v>
+        <v>3199.339953217877</v>
+      </c>
+      <c r="I40">
+        <v>3899.977550638881</v>
       </c>
     </row>
     <row r="41">
@@ -90436,13 +91832,16 @@
         </is>
       </c>
       <c r="F41">
-        <v>1910.88</v>
+        <v>2377.156711481662</v>
       </c>
       <c r="G41">
-        <v>1910.88</v>
+        <v>2624.573091344944</v>
       </c>
       <c r="H41">
-        <v>1910.88</v>
+        <v>3199.339953217877</v>
+      </c>
+      <c r="I41">
+        <v>3899.977550638881</v>
       </c>
     </row>
     <row r="42">
@@ -90472,13 +91871,16 @@
         </is>
       </c>
       <c r="F42">
-        <v>3836.806</v>
+        <v>4773.030820121153</v>
       </c>
       <c r="G42">
-        <v>3836.806</v>
+        <v>5269.811701577717</v>
       </c>
       <c r="H42">
-        <v>3836.806</v>
+        <v>6423.871058646315</v>
+      </c>
+      <c r="I42">
+        <v>7830.662975255673</v>
       </c>
     </row>
     <row r="43">
@@ -90508,13 +91910,16 @@
         </is>
       </c>
       <c r="F43">
-        <v>1564.815</v>
+        <v>1946.647868771025</v>
       </c>
       <c r="G43">
-        <v>1564.815</v>
+        <v>2149.256542500282</v>
       </c>
       <c r="H43">
-        <v>1564.815</v>
+        <v>2619.931732445069</v>
+      </c>
+      <c r="I43">
+        <v>3193.682162617737</v>
       </c>
     </row>
     <row r="44">
@@ -90544,13 +91949,16 @@
         </is>
       </c>
       <c r="F44">
-        <v>2437.5</v>
+        <v>3032.278052120777</v>
       </c>
       <c r="G44">
-        <v>2437.5</v>
+        <v>3347.879987311239</v>
       </c>
       <c r="H44">
-        <v>2437.5</v>
+        <v>4081.04702334452</v>
+      </c>
+      <c r="I44">
+        <v>4974.773549193184</v>
       </c>
     </row>
     <row r="45">
@@ -90580,13 +91988,16 @@
         </is>
       </c>
       <c r="F45">
-        <v>2557.87</v>
+        <v>3182.01971740643</v>
       </c>
       <c r="G45">
-        <v>2557.87</v>
+        <v>3513.206885392328</v>
       </c>
       <c r="H45">
-        <v>2557.87</v>
+        <v>4282.579589580409</v>
+      </c>
+      <c r="I45">
+        <v>5220.440622881957</v>
       </c>
     </row>
     <row r="46">
@@ -90616,13 +92027,16 @@
         </is>
       </c>
       <c r="F46">
-        <v>8681.713</v>
+        <v>10800.15088603554</v>
       </c>
       <c r="G46">
-        <v>8681.713</v>
+        <v>11924.23926493531</v>
       </c>
       <c r="H46">
-        <v>8681.713</v>
+        <v>14535.58112663853</v>
+      </c>
+      <c r="I46">
+        <v>17718.79228475348</v>
       </c>
     </row>
     <row r="47">
@@ -90652,13 +92066,16 @@
         </is>
       </c>
       <c r="F47">
-        <v>797.454</v>
+        <v>992.0419535490962</v>
       </c>
       <c r="G47">
-        <v>797.454</v>
+        <v>1095.294476882583</v>
       </c>
       <c r="H47">
-        <v>797.454</v>
+        <v>1335.157855570946</v>
+      </c>
+      <c r="I47">
+        <v>1627.549975753149</v>
       </c>
     </row>
     <row r="48">
@@ -90688,13 +92105,16 @@
         </is>
       </c>
       <c r="F48">
-        <v>827.546</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="G48">
-        <v>827.546</v>
+        <v>1136.625514658243</v>
       </c>
       <c r="H48">
-        <v>827.546</v>
+        <v>1385.540159992067</v>
+      </c>
+      <c r="I48">
+        <v>1688.965723708973</v>
       </c>
     </row>
     <row r="49">
@@ -90724,13 +92144,16 @@
         </is>
       </c>
       <c r="F49">
-        <v>827.546</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="G49">
-        <v>827.546</v>
+        <v>1136.625514658243</v>
       </c>
       <c r="H49">
-        <v>827.546</v>
+        <v>1385.540159992067</v>
+      </c>
+      <c r="I49">
+        <v>1688.965723708973</v>
       </c>
     </row>
     <row r="50">
@@ -90760,13 +92183,16 @@
         </is>
       </c>
       <c r="F50">
-        <v>827.546</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="G50">
-        <v>827.546</v>
+        <v>1136.625514658243</v>
       </c>
       <c r="H50">
-        <v>827.546</v>
+        <v>1385.540159992067</v>
+      </c>
+      <c r="I50">
+        <v>1688.965723708973</v>
       </c>
     </row>
     <row r="51">
@@ -90796,13 +92222,16 @@
         </is>
       </c>
       <c r="F51">
-        <v>752.3150000000001</v>
+        <v>935.8885180640997</v>
       </c>
       <c r="G51">
-        <v>752.3150000000001</v>
+        <v>1033.296546729869</v>
       </c>
       <c r="H51">
-        <v>752.3150000000001</v>
+        <v>1259.582724663562</v>
+      </c>
+      <c r="I51">
+        <v>1535.424312886675</v>
       </c>
     </row>
     <row r="52">
@@ -90832,13 +92261,16 @@
         </is>
       </c>
       <c r="F52">
-        <v>767.361</v>
+        <v>954.6059152219291</v>
       </c>
       <c r="G52">
-        <v>767.361</v>
+        <v>1053.962065617698</v>
       </c>
       <c r="H52">
-        <v>767.361</v>
+        <v>1284.773876874123</v>
+      </c>
+      <c r="I52">
+        <v>1566.132186864587</v>
       </c>
     </row>
     <row r="53">
@@ -90868,13 +92300,16 @@
         </is>
       </c>
       <c r="F53">
-        <v>1203.704</v>
+        <v>1497.421628902559</v>
       </c>
       <c r="G53">
-        <v>1203.704</v>
+        <v>1653.27447476779</v>
       </c>
       <c r="H53">
-        <v>1203.704</v>
+        <v>2015.332359461699</v>
+      </c>
+      <c r="I53">
+        <v>2456.67890061868</v>
       </c>
     </row>
     <row r="54">
@@ -90904,13 +92339,16 @@
         </is>
       </c>
       <c r="F54">
-        <v>1263.889</v>
+        <v>1572.292461545385</v>
       </c>
       <c r="G54">
-        <v>1263.889</v>
+        <v>1735.937923808334</v>
       </c>
       <c r="H54">
-        <v>1263.889</v>
+        <v>2116.098642579643</v>
+      </c>
+      <c r="I54">
+        <v>2579.512437463066</v>
       </c>
     </row>
     <row r="55">
@@ -90940,13 +92378,16 @@
         </is>
       </c>
       <c r="F55">
-        <v>1158.565</v>
+        <v>1441.268193417563</v>
       </c>
       <c r="G55">
-        <v>1158.565</v>
+        <v>1591.276544615075</v>
       </c>
       <c r="H55">
-        <v>1158.565</v>
+        <v>1939.757228554316</v>
+      </c>
+      <c r="I55">
+        <v>2364.553237752206</v>
       </c>
     </row>
     <row r="56">
@@ -90976,13 +92417,16 @@
         </is>
       </c>
       <c r="F56">
-        <v>1188.657</v>
+        <v>1478.702987733221</v>
       </c>
       <c r="G56">
-        <v>1188.657</v>
+        <v>1632.607582390734</v>
       </c>
       <c r="H56">
-        <v>1188.657</v>
+        <v>1990.139532975436</v>
+      </c>
+      <c r="I56">
+        <v>2425.968985708029</v>
       </c>
     </row>
     <row r="57">
@@ -91012,13 +92456,16 @@
         </is>
       </c>
       <c r="F57">
-        <v>1083.333</v>
+        <v>1347.678719605398</v>
       </c>
       <c r="G57">
-        <v>1083.333</v>
+        <v>1487.946203197476</v>
       </c>
       <c r="H57">
-        <v>1083.333</v>
+        <v>1813.798118950108</v>
+      </c>
+      <c r="I57">
+        <v>2211.009785997169</v>
       </c>
     </row>
     <row r="58">
@@ -91048,13 +92495,16 @@
         </is>
       </c>
       <c r="F58">
-        <v>917.824</v>
+        <v>1141.783618834749</v>
       </c>
       <c r="G58">
-        <v>917.824</v>
+        <v>1260.621374963672</v>
       </c>
       <c r="H58">
-        <v>917.824</v>
+        <v>1536.690421806835</v>
+      </c>
+      <c r="I58">
+        <v>1873.217049441922</v>
       </c>
     </row>
     <row r="59">
@@ -91084,13 +92534,16 @@
         </is>
       </c>
       <c r="F59">
-        <v>962.963</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="G59">
-        <v>962.963</v>
+        <v>1322.619305116387</v>
       </c>
       <c r="H59">
-        <v>962.963</v>
+        <v>1612.265552714219</v>
+      </c>
+      <c r="I59">
+        <v>1965.342712308396</v>
       </c>
     </row>
     <row r="60">
@@ -91120,13 +92573,16 @@
         </is>
       </c>
       <c r="F60">
-        <v>947.917</v>
+        <v>1179.219657161916</v>
       </c>
       <c r="G60">
-        <v>947.917</v>
+        <v>1301.953786228557</v>
       </c>
       <c r="H60">
-        <v>947.917</v>
+        <v>1587.074400503658</v>
+      </c>
+      <c r="I60">
+        <v>1934.634838330484</v>
       </c>
     </row>
     <row r="61">
@@ -91156,13 +92612,16 @@
         </is>
       </c>
       <c r="F61">
-        <v>962.963</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="G61">
-        <v>962.963</v>
+        <v>1322.619305116387</v>
       </c>
       <c r="H61">
-        <v>962.963</v>
+        <v>1612.265552714219</v>
+      </c>
+      <c r="I61">
+        <v>1965.342712308396</v>
       </c>
     </row>
     <row r="62">
@@ -91192,13 +92651,16 @@
         </is>
       </c>
       <c r="F62">
-        <v>872.6849999999999</v>
+        <v>1085.630183349752</v>
       </c>
       <c r="G62">
-        <v>872.6849999999999</v>
+        <v>1198.623444810958</v>
       </c>
       <c r="H62">
-        <v>872.6849999999999</v>
+        <v>1461.115290899451</v>
+      </c>
+      <c r="I62">
+        <v>1781.091386575448</v>
       </c>
     </row>
     <row r="63">
@@ -91228,13 +92690,16 @@
         </is>
       </c>
       <c r="F63">
-        <v>887.732</v>
+        <v>1104.34882451909</v>
       </c>
       <c r="G63">
-        <v>887.732</v>
+        <v>1219.290337188013</v>
       </c>
       <c r="H63">
-        <v>887.732</v>
+        <v>1486.308117385714</v>
+      </c>
+      <c r="I63">
+        <v>1811.801301486098</v>
       </c>
     </row>
     <row r="64">
@@ -91264,13 +92729,16 @@
         </is>
       </c>
       <c r="F64">
-        <v>55.54001677852349</v>
+        <v>69.09242005823036</v>
       </c>
       <c r="G64">
-        <v>55.54001677852349</v>
+        <v>76.28361463292276</v>
       </c>
       <c r="H64">
-        <v>55.54001677852349</v>
+        <v>92.98930057456326</v>
+      </c>
+      <c r="I64">
+        <v>113.3534385196079</v>
       </c>
     </row>
     <row r="65">
@@ -91300,13 +92768,16 @@
         </is>
       </c>
       <c r="F65">
-        <v>55.54001677852349</v>
+        <v>69.09242005823036</v>
       </c>
       <c r="G65">
-        <v>55.54001677852349</v>
+        <v>76.28361463292276</v>
       </c>
       <c r="H65">
-        <v>55.54001677852349</v>
+        <v>92.98930057456326</v>
+      </c>
+      <c r="I65">
+        <v>113.3534385196079</v>
       </c>
     </row>
     <row r="66">
@@ -91336,13 +92807,16 @@
         </is>
       </c>
       <c r="F66">
-        <v>56.80226510067114</v>
+        <v>70.66267149764558</v>
       </c>
       <c r="G66">
-        <v>56.80226510067114</v>
+        <v>78.01729910337828</v>
       </c>
       <c r="H66">
-        <v>56.80226510067114</v>
+        <v>95.1026522700801</v>
+      </c>
+      <c r="I66">
+        <v>115.9296024439294</v>
       </c>
     </row>
     <row r="67">
@@ -91372,13 +92846,16 @@
         </is>
       </c>
       <c r="F67">
-        <v>243.6187080536913</v>
+        <v>303.0644765198881</v>
       </c>
       <c r="G67">
-        <v>243.6187080536913</v>
+        <v>334.6076706574656</v>
       </c>
       <c r="H67">
-        <v>243.6187080536913</v>
+        <v>407.884883418894</v>
+      </c>
+      <c r="I67">
+        <v>497.209396887844</v>
       </c>
     </row>
     <row r="68">
@@ -91408,13 +92885,16 @@
         </is>
       </c>
       <c r="F68">
-        <v>253.7169463087248</v>
+        <v>315.6268011253546</v>
       </c>
       <c r="G68">
-        <v>253.7169463087248</v>
+        <v>348.4774920979281</v>
       </c>
       <c r="H68">
-        <v>253.7169463087248</v>
+        <v>424.7921183611415</v>
+      </c>
+      <c r="I68">
+        <v>517.8192219399841</v>
       </c>
     </row>
     <row r="69">
@@ -91444,13 +92924,16 @@
         </is>
       </c>
       <c r="F69">
-        <v>953.0162751677852</v>
+        <v>1185.563214155967</v>
       </c>
       <c r="G69">
-        <v>953.0162751677852</v>
+        <v>1308.957585729694</v>
       </c>
       <c r="H69">
-        <v>953.0162751677852</v>
+        <v>1595.611993014306</v>
+      </c>
+      <c r="I69">
+        <v>1945.042115961154</v>
       </c>
     </row>
     <row r="70">
@@ -91480,13 +92963,16 @@
         </is>
       </c>
       <c r="F70">
-        <v>953.0162751677852</v>
+        <v>1185.563214155967</v>
       </c>
       <c r="G70">
-        <v>953.0162751677852</v>
+        <v>1308.957585729694</v>
       </c>
       <c r="H70">
-        <v>953.0162751677852</v>
+        <v>1595.611993014306</v>
+      </c>
+      <c r="I70">
+        <v>1945.042115961154</v>
       </c>
     </row>
     <row r="71">
@@ -91516,13 +93002,16 @@
         </is>
       </c>
       <c r="F71">
-        <v>496.528</v>
+        <v>617.6865463234566</v>
       </c>
       <c r="G71">
-        <v>496.528</v>
+        <v>681.9758581906359</v>
       </c>
       <c r="H71">
-        <v>496.528</v>
+        <v>831.3247657055211</v>
+      </c>
+      <c r="I71">
+        <v>1013.380250598479</v>
       </c>
     </row>
     <row r="72">
@@ -91552,13 +93041,16 @@
         </is>
       </c>
       <c r="F72">
-        <v>962.963</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="G72">
-        <v>962.963</v>
+        <v>1322.619305116387</v>
       </c>
       <c r="H72">
-        <v>962.963</v>
+        <v>1612.265552714219</v>
+      </c>
+      <c r="I72">
+        <v>1965.342712308396</v>
       </c>
     </row>
     <row r="73">
@@ -91588,13 +93080,16 @@
         </is>
       </c>
       <c r="F73">
-        <v>932.87</v>
+        <v>1160.501015992578</v>
       </c>
       <c r="G73">
-        <v>932.87</v>
+        <v>1281.286893851502</v>
       </c>
       <c r="H73">
-        <v>932.87</v>
+        <v>1561.881574017395</v>
+      </c>
+      <c r="I73">
+        <v>1903.924923419834</v>
       </c>
     </row>
     <row r="74">
@@ -91624,13 +93119,16 @@
         </is>
       </c>
       <c r="F74">
-        <v>481.481</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="G74">
-        <v>481.481</v>
+        <v>661.3089658135807</v>
       </c>
       <c r="H74">
-        <v>481.481</v>
+        <v>806.1319392192587</v>
+      </c>
+      <c r="I74">
+        <v>982.6703356878293</v>
       </c>
     </row>
     <row r="75">
@@ -91660,13 +93158,16 @@
         </is>
       </c>
       <c r="F75">
-        <v>692.13</v>
+        <v>861.0176854212731</v>
       </c>
       <c r="G75">
-        <v>692.13</v>
+        <v>950.6330976893241</v>
       </c>
       <c r="H75">
-        <v>692.13</v>
+        <v>1158.816441545617</v>
+      </c>
+      <c r="I75">
+        <v>1412.590776042288</v>
       </c>
     </row>
     <row r="76">
@@ -91696,13 +93197,16 @@
         </is>
       </c>
       <c r="F76">
-        <v>481.481</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="G76">
-        <v>481.481</v>
+        <v>661.3089658135807</v>
       </c>
       <c r="H76">
-        <v>481.481</v>
+        <v>806.1319392192587</v>
+      </c>
+      <c r="I76">
+        <v>982.6703356878293</v>
       </c>
     </row>
     <row r="77">
@@ -91732,13 +93236,16 @@
         </is>
       </c>
       <c r="F77">
-        <v>1113.426</v>
+        <v>1385.114757932565</v>
       </c>
       <c r="G77">
-        <v>1113.426</v>
+        <v>1529.27861446236</v>
       </c>
       <c r="H77">
-        <v>1113.426</v>
+        <v>1864.182097646931</v>
+      </c>
+      <c r="I77">
+        <v>2272.427574885731</v>
       </c>
     </row>
     <row r="78">
@@ -91768,13 +93275,16 @@
         </is>
       </c>
       <c r="F78">
-        <v>270.833</v>
+        <v>336.9193688984724</v>
       </c>
       <c r="G78">
-        <v>270.833</v>
+        <v>371.9862074270625</v>
       </c>
       <c r="H78">
-        <v>270.833</v>
+        <v>453.4491111686016</v>
+      </c>
+      <c r="I78">
+        <v>552.7519362661078</v>
       </c>
     </row>
     <row r="79">
@@ -91804,12 +93314,15 @@
         </is>
       </c>
       <c r="F79">
+        <v>238.2303606374057</v>
+      </c>
+      <c r="G79">
         <v>205.9453918553723</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>141.7388873357562</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>116.2985742242102</v>
       </c>
     </row>
@@ -91840,12 +93353,15 @@
         </is>
       </c>
       <c r="F80">
+        <v>163.5448700027956</v>
+      </c>
+      <c r="G80">
         <v>132.0473394837387</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>116.2985742242102</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>105.3955828906905</v>
       </c>
     </row>

--- a/outputs/technology_catalogue/technology_catalogue_ind_nuts1_nuts3.xlsx
+++ b/outputs/technology_catalogue/technology_catalogue_ind_nuts1_nuts3.xlsx
@@ -30593,13 +30593,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G2">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H2">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I2">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="3">
@@ -30632,13 +30632,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G3">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H3">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I3">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="4">
@@ -30671,13 +30671,13 @@
         <v>37.65000830664013</v>
       </c>
       <c r="G4">
-        <v>41.56865141168191</v>
+        <v>37.65000830664013</v>
       </c>
       <c r="H4">
-        <v>50.67195411754744</v>
+        <v>37.65000830664013</v>
       </c>
       <c r="I4">
-        <v>61.76882931952071</v>
+        <v>37.65000830664013</v>
       </c>
     </row>
     <row r="5">
@@ -30710,13 +30710,13 @@
         <v>35.72179046836845</v>
       </c>
       <c r="G5">
-        <v>39.43974311205834</v>
+        <v>35.72179046836845</v>
       </c>
       <c r="H5">
-        <v>48.07682677962579</v>
+        <v>35.72179046836845</v>
       </c>
       <c r="I5">
-        <v>58.60538357541837</v>
+        <v>35.72179046836845</v>
       </c>
     </row>
     <row r="6">
@@ -30749,13 +30749,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G6">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H6">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I6">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="7">
@@ -30788,13 +30788,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G7">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H7">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I7">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="8">
@@ -30827,13 +30827,13 @@
         <v>37.83661003292448</v>
       </c>
       <c r="G8">
-        <v>41.77467479551644</v>
+        <v>37.83661003292448</v>
       </c>
       <c r="H8">
-        <v>50.92309547283018</v>
+        <v>37.83661003292448</v>
       </c>
       <c r="I8">
-        <v>62.07496923024028</v>
+        <v>37.83661003292448</v>
       </c>
     </row>
     <row r="9">
@@ -30866,13 +30866,13 @@
         <v>34.41931041890365</v>
       </c>
       <c r="G9">
-        <v>38.00169989289327</v>
+        <v>34.41931041890365</v>
       </c>
       <c r="H9">
-        <v>46.32386011975227</v>
+        <v>34.41931041890365</v>
       </c>
       <c r="I9">
-        <v>56.46852699859569</v>
+        <v>34.41931041890365</v>
       </c>
     </row>
     <row r="10">
@@ -30905,13 +30905,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G10">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H10">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I10">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="11">
@@ -30944,13 +30944,13 @@
         <v>28.99417623006316</v>
       </c>
       <c r="G11">
-        <v>32.01191338021048</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="H11">
-        <v>39.02234378383208</v>
+        <v>28.99417623006316</v>
       </c>
       <c r="I11">
-        <v>47.56801932760842</v>
+        <v>28.99417623006316</v>
       </c>
     </row>
     <row r="12">
@@ -30983,13 +30983,13 @@
         <v>39.51353754646656</v>
       </c>
       <c r="G12">
-        <v>43.62613827157615</v>
+        <v>39.51353754646656</v>
       </c>
       <c r="H12">
-        <v>53.18001911897106</v>
+        <v>39.51353754646656</v>
       </c>
       <c r="I12">
-        <v>64.82614656124024</v>
+        <v>39.51353754646656</v>
       </c>
     </row>
     <row r="13">
@@ -31022,13 +31022,13 @@
         <v>32.77845923910989</v>
       </c>
       <c r="G13">
-        <v>36.19006760437491</v>
+        <v>32.77845923910989</v>
       </c>
       <c r="H13">
-        <v>44.11549046896605</v>
+        <v>32.77845923910989</v>
       </c>
       <c r="I13">
-        <v>53.77653671700153</v>
+        <v>32.77845923910989</v>
       </c>
     </row>
     <row r="14">
@@ -31061,13 +31061,13 @@
         <v>35.79767517039076</v>
       </c>
       <c r="G14">
-        <v>39.52352595481773</v>
+        <v>35.79767517039076</v>
       </c>
       <c r="H14">
-        <v>48.17895759744078</v>
+        <v>35.79767517039076</v>
       </c>
       <c r="I14">
-        <v>58.72988047244433</v>
+        <v>35.79767517039076</v>
       </c>
     </row>
     <row r="15">
@@ -31100,13 +31100,13 @@
         <v>37.30044107273411</v>
       </c>
       <c r="G15">
-        <v>41.18270093929855</v>
+        <v>37.30044107273411</v>
       </c>
       <c r="H15">
-        <v>50.20148264531778</v>
+        <v>37.30044107273411</v>
       </c>
       <c r="I15">
-        <v>61.19532722010603</v>
+        <v>37.30044107273411</v>
       </c>
     </row>
     <row r="16">
@@ -31139,13 +31139,13 @@
         <v>30.69349595075935</v>
       </c>
       <c r="G16">
-        <v>33.88809966233033</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="H16">
-        <v>41.3094043926069</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="I16">
-        <v>50.35593344789473</v>
+        <v>30.69349595075935</v>
       </c>
     </row>
     <row r="17">
@@ -31178,13 +31178,13 @@
         <v>36.45326923540313</v>
       </c>
       <c r="G17">
-        <v>40.24735477668974</v>
+        <v>36.45326923540313</v>
       </c>
       <c r="H17">
-        <v>49.06130089233414</v>
+        <v>36.45326923540313</v>
       </c>
       <c r="I17">
-        <v>59.80545202543913</v>
+        <v>36.45326923540313</v>
       </c>
     </row>
     <row r="18">
@@ -31217,13 +31217,13 @@
         <v>36.81527658439479</v>
       </c>
       <c r="G18">
-        <v>40.64704014132875</v>
+        <v>36.81527658439479</v>
       </c>
       <c r="H18">
-        <v>49.54851512158266</v>
+        <v>36.81527658439479</v>
       </c>
       <c r="I18">
-        <v>60.39936345223512</v>
+        <v>36.81527658439479</v>
       </c>
     </row>
     <row r="19">
@@ -31256,13 +31256,13 @@
         <v>30.69349595075935</v>
       </c>
       <c r="G19">
-        <v>33.88809966233033</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="H19">
-        <v>41.3094043926069</v>
+        <v>30.69349595075935</v>
       </c>
       <c r="I19">
-        <v>50.35593344789473</v>
+        <v>30.69349595075935</v>
       </c>
     </row>
     <row r="20">
@@ -31295,13 +31295,13 @@
         <v>37.50321494862977</v>
       </c>
       <c r="G20">
-        <v>41.4065796830654</v>
+        <v>37.50321494862977</v>
       </c>
       <c r="H20">
-        <v>50.47438958472502</v>
+        <v>37.50321494862977</v>
       </c>
       <c r="I20">
-        <v>61.5279992564213</v>
+        <v>37.50321494862977</v>
       </c>
     </row>
     <row r="21">
@@ -31334,13 +31334,13 @@
         <v>32.63042186959097</v>
       </c>
       <c r="G21">
-        <v>36.02662238653284</v>
+        <v>32.63042186959097</v>
       </c>
       <c r="H21">
-        <v>43.91625166044174</v>
+        <v>32.63042186959097</v>
       </c>
       <c r="I21">
-        <v>53.53366572116398</v>
+        <v>32.63042186959097</v>
       </c>
     </row>
     <row r="22">
@@ -31373,13 +31373,13 @@
         <v>34.85844648142617</v>
       </c>
       <c r="G22">
-        <v>38.48654158951722</v>
+        <v>34.85844648142617</v>
       </c>
       <c r="H22">
-        <v>46.91487944251765</v>
+        <v>34.85844648142617</v>
       </c>
       <c r="I22">
-        <v>57.18897625515577</v>
+        <v>34.85844648142617</v>
       </c>
     </row>
     <row r="23">
@@ -31412,13 +31412,13 @@
         <v>33.75376426182279</v>
       </c>
       <c r="G23">
-        <v>37.26688315721676</v>
+        <v>33.75376426182279</v>
       </c>
       <c r="H23">
-        <v>45.42812261924384</v>
+        <v>33.75376426182279</v>
       </c>
       <c r="I23">
-        <v>55.37662798369586</v>
+        <v>33.75376426182279</v>
       </c>
     </row>
     <row r="24">
@@ -31451,13 +31451,13 @@
         <v>36.05145351813749</v>
       </c>
       <c r="G24">
-        <v>39.80371775683271</v>
+        <v>36.05145351813749</v>
       </c>
       <c r="H24">
-        <v>48.52050984062532</v>
+        <v>36.05145351813749</v>
       </c>
       <c r="I24">
-        <v>59.14623075102298</v>
+        <v>36.05145351813749</v>
       </c>
     </row>
     <row r="25">
@@ -31490,13 +31490,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G25">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H25">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I25">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="26">
@@ -31529,13 +31529,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G26">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H26">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I26">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="27">
@@ -31568,13 +31568,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G27">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H27">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I27">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="28">
@@ -31607,13 +31607,13 @@
         <v>1181.808445111235</v>
       </c>
       <c r="G28">
-        <v>1304.812017306955</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="H28">
-        <v>1590.558568239281</v>
+        <v>1181.808445111235</v>
       </c>
       <c r="I28">
-        <v>1938.882019358534</v>
+        <v>1181.808445111235</v>
       </c>
     </row>
     <row r="29">
@@ -31646,13 +31646,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G29">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H29">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I29">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="30">
@@ -31685,13 +31685,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G30">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H30">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I30">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="31">
@@ -31724,13 +31724,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G31">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H31">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I31">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="32">
@@ -31763,13 +31763,13 @@
         <v>1238.461973222673</v>
       </c>
       <c r="G32">
-        <v>1367.362090128346</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="H32">
-        <v>1666.806757978822</v>
+        <v>1238.461973222673</v>
       </c>
       <c r="I32">
-        <v>2031.828137185736</v>
+        <v>1238.461973222673</v>
       </c>
     </row>
     <row r="33">
@@ -32036,13 +32036,13 @@
         <v>156.2976059357762</v>
       </c>
       <c r="G39">
-        <v>172.5651862998089</v>
+        <v>156.2976059357762</v>
       </c>
       <c r="H39">
-        <v>210.3559991848227</v>
+        <v>156.2976059357762</v>
       </c>
       <c r="I39">
-        <v>256.4227892187207</v>
+        <v>156.2976059357762</v>
       </c>
     </row>
     <row r="40">
@@ -32348,13 +32348,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G47">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H47">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I47">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="48">
@@ -32387,13 +32387,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G48">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H48">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I48">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="49">
@@ -32426,13 +32426,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G49">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H49">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I49">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="50">
@@ -32465,13 +32465,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G50">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H50">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I50">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="51">
@@ -32504,13 +32504,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G51">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H51">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I51">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="52">
@@ -32543,13 +32543,13 @@
         <v>130.9160391265781</v>
       </c>
       <c r="G52">
-        <v>144.541885630635</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="H52">
-        <v>176.1957520392645</v>
+        <v>130.9160391265781</v>
       </c>
       <c r="I52">
-        <v>214.7816385626433</v>
+        <v>130.9160391265781</v>
       </c>
     </row>
     <row r="53">
@@ -32582,13 +32582,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G53">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H53">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I53">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="54">
@@ -32621,13 +32621,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G54">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H54">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I54">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="55">
@@ -32660,13 +32660,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G55">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H55">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I55">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="56">
@@ -32699,13 +32699,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G56">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H56">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I56">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="57">
@@ -32738,13 +32738,13 @@
         <v>112.5706014098089</v>
       </c>
       <c r="G57">
-        <v>124.2870400212489</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="H57">
-        <v>151.5052082635675</v>
+        <v>112.5706014098089</v>
       </c>
       <c r="I57">
-        <v>184.6840034734323</v>
+        <v>112.5706014098089</v>
       </c>
     </row>
     <row r="58">
@@ -32777,13 +32777,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G58">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H58">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I58">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="59">
@@ -32816,13 +32816,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G59">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H59">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I59">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="60">
@@ -32855,13 +32855,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G60">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H60">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I60">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="61">
@@ -32894,13 +32894,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G61">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H61">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I61">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="62">
@@ -32933,13 +32933,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G62">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H62">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I62">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="63">
@@ -32972,13 +32972,13 @@
         <v>105.9163838505088</v>
       </c>
       <c r="G63">
-        <v>116.9402461537092</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="H63">
-        <v>142.5495075341849</v>
+        <v>105.9163838505088</v>
       </c>
       <c r="I63">
-        <v>173.7670542571721</v>
+        <v>105.9163838505088</v>
       </c>
     </row>
     <row r="64">
@@ -33011,13 +33011,13 @@
         <v>1.556997289953188</v>
       </c>
       <c r="G64">
-        <v>1.719050818471739</v>
+        <v>1.556997289953188</v>
       </c>
       <c r="H64">
-        <v>2.095513355404471</v>
+        <v>1.556997289953188</v>
       </c>
       <c r="I64">
-        <v>2.554419087262541</v>
+        <v>1.556997289953188</v>
       </c>
     </row>
     <row r="65">
@@ -33050,13 +33050,13 @@
         <v>0.7652966772053575</v>
       </c>
       <c r="G65">
-        <v>0.8449493700551823</v>
+        <v>0.7652966772053575</v>
       </c>
       <c r="H65">
-        <v>1.029988567275353</v>
+        <v>0.7652966772053575</v>
       </c>
       <c r="I65">
-        <v>1.25555031616705</v>
+        <v>0.7652966772053575</v>
       </c>
     </row>
     <row r="66">
@@ -33089,13 +33089,13 @@
         <v>1.43249177571536</v>
       </c>
       <c r="G66">
-        <v>1.581586670309209</v>
+        <v>1.43249177571536</v>
       </c>
       <c r="H66">
-        <v>1.927945325845014</v>
+        <v>1.43249177571536</v>
       </c>
       <c r="I66">
-        <v>2.350154594260046</v>
+        <v>1.43249177571536</v>
       </c>
     </row>
     <row r="67">
@@ -33128,13 +33128,13 @@
         <v>4.900695672740921</v>
       </c>
       <c r="G67">
-        <v>5.41076401459856</v>
+        <v>4.900695672740921</v>
       </c>
       <c r="H67">
-        <v>6.595691141704076</v>
+        <v>4.900695672740921</v>
       </c>
       <c r="I67">
-        <v>8.040110697746119</v>
+        <v>4.900695672740921</v>
       </c>
     </row>
     <row r="68">
@@ -33167,13 +33167,13 @@
         <v>5.142505627886811</v>
       </c>
       <c r="G68">
-        <v>5.677741744097791</v>
+        <v>5.142505627886811</v>
       </c>
       <c r="H68">
-        <v>6.921135504226508</v>
+        <v>5.142505627886811</v>
       </c>
       <c r="I68">
-        <v>8.436825559679715</v>
+        <v>5.142505627886811</v>
       </c>
     </row>
     <row r="69">
@@ -33206,13 +33206,13 @@
         <v>18.78415632576542</v>
       </c>
       <c r="G69">
-        <v>20.73922640358545</v>
+        <v>18.78415632576542</v>
       </c>
       <c r="H69">
-        <v>25.2810012609786</v>
+        <v>18.78415632576542</v>
       </c>
       <c r="I69">
-        <v>30.81739946901334</v>
+        <v>18.78415632576542</v>
       </c>
     </row>
     <row r="70">
@@ -33245,13 +33245,13 @@
         <v>19.66905343827385</v>
       </c>
       <c r="G70">
-        <v>21.71622431831311</v>
+        <v>19.66905343827385</v>
       </c>
       <c r="H70">
-        <v>26.47195626737813</v>
+        <v>19.66905343827385</v>
       </c>
       <c r="I70">
-        <v>32.26916697627919</v>
+        <v>19.66905343827385</v>
       </c>
     </row>
     <row r="71">
@@ -33284,13 +33284,13 @@
         <v>425.3262907659658</v>
       </c>
       <c r="G71">
-        <v>469.5945927309643</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="H71">
-        <v>572.4331881987562</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="I71">
-        <v>697.7928622340926</v>
+        <v>425.3262907659658</v>
       </c>
     </row>
     <row r="72">
@@ -33323,13 +33323,13 @@
         <v>425.3262907659658</v>
       </c>
       <c r="G72">
-        <v>469.5945927309643</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="H72">
-        <v>572.4331881987562</v>
+        <v>425.3262907659658</v>
       </c>
       <c r="I72">
-        <v>697.7928622340926</v>
+        <v>425.3262907659658</v>
       </c>
     </row>
     <row r="73">
@@ -33362,13 +33362,13 @@
         <v>449.9776228196376</v>
       </c>
       <c r="G73">
-        <v>496.8116552247322</v>
+        <v>449.9776228196376</v>
       </c>
       <c r="H73">
-        <v>605.6106355073077</v>
+        <v>449.9776228196376</v>
       </c>
       <c r="I73">
-        <v>738.2359853728871</v>
+        <v>449.9776228196376</v>
       </c>
     </row>
     <row r="74">
@@ -33401,13 +33401,13 @@
         <v>308.3792568690345</v>
       </c>
       <c r="G74">
-        <v>340.4756176141827</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="H74">
-        <v>415.0378780159574</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="I74">
-        <v>505.9288573879169</v>
+        <v>308.3792568690345</v>
       </c>
     </row>
     <row r="75">
@@ -33440,13 +33440,13 @@
         <v>308.3792568690345</v>
       </c>
       <c r="G75">
-        <v>340.4756176141827</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="H75">
-        <v>415.0378780159574</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="I75">
-        <v>505.9288573879169</v>
+        <v>308.3792568690345</v>
       </c>
     </row>
     <row r="76">
@@ -33479,13 +33479,13 @@
         <v>308.3792568690345</v>
       </c>
       <c r="G76">
-        <v>340.4756176141827</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="H76">
-        <v>415.0378780159574</v>
+        <v>308.3792568690345</v>
       </c>
       <c r="I76">
-        <v>505.9288573879169</v>
+        <v>308.3792568690345</v>
       </c>
     </row>
     <row r="77">
@@ -33518,13 +33518,13 @@
         <v>277.1583000386448</v>
       </c>
       <c r="G77">
-        <v>306.0051585202135</v>
+        <v>277.1583000386448</v>
       </c>
       <c r="H77">
-        <v>373.0185807257515</v>
+        <v>277.1583000386448</v>
       </c>
       <c r="I77">
-        <v>454.707568459055</v>
+        <v>277.1583000386448</v>
       </c>
     </row>
     <row r="78">
@@ -33557,13 +33557,13 @@
         <v>591.1107284660385</v>
       </c>
       <c r="G78">
-        <v>652.6340078649209</v>
+        <v>591.1107284660385</v>
       </c>
       <c r="H78">
-        <v>795.5572138861531</v>
+        <v>591.1107284660385</v>
       </c>
       <c r="I78">
-        <v>969.7798045137964</v>
+        <v>591.1107284660385</v>
       </c>
     </row>
     <row r="79">
@@ -33593,16 +33593,16 @@
         </is>
       </c>
       <c r="F79">
-        <v>15.735</v>
+        <v>19.28455846613214</v>
       </c>
       <c r="G79">
-        <v>13.5</v>
+        <v>16.54537904625254</v>
       </c>
       <c r="H79">
-        <v>9.039999999999999</v>
+        <v>11.07927604282393</v>
       </c>
       <c r="I79">
-        <v>7.87</v>
+        <v>9.645343192148706</v>
       </c>
     </row>
     <row r="80">
@@ -33632,16 +33632,16 @@
         </is>
       </c>
       <c r="F80">
-        <v>4.724629577858541</v>
+        <v>5.456365489631739</v>
       </c>
       <c r="G80">
-        <v>3.63433044450657</v>
+        <v>4.197204222793643</v>
       </c>
       <c r="H80">
-        <v>3.63433044450657</v>
+        <v>4.197204222793643</v>
       </c>
       <c r="I80">
-        <v>3.149753051905694</v>
+        <v>3.637576993087825</v>
       </c>
     </row>
   </sheetData>
@@ -62081,7 +62081,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -67707,17 +67707,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>fertiliser</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>fertiliser-ammonia-NH3</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>(NG)NH3</t>
+          <t>Scraps_EAF</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -67726,7 +67726,7 @@
         </is>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="189">
@@ -67737,47 +67737,47 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>refineries</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>steel-primary</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>BF-BOF</t>
+          <t>REF-SMR</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>kt_yr</t>
+          <t>mwh_yr</t>
         </is>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>25794880</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>steel-secondary</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Scraps_EAF</t>
+          <t>EU-mix-2018</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -67786,13 +67786,13 @@
         </is>
       </c>
       <c r="F190">
-        <v>1500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -67802,12 +67802,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>chemical-olefins</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>(NG)PE</t>
+          <t>(LN)O</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -67816,28 +67816,28 @@
         </is>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>fertiliser</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>chemical-olefins</t>
+          <t>fertiliser-ammonia-NH3</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>(LN)O</t>
+          <t>(NG)NH3</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -67846,28 +67846,28 @@
         </is>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>(NG)PEA</t>
+          <t>(NG)_gfi</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -67876,13 +67876,13 @@
         </is>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -67906,7 +67906,7 @@
         </is>
       </c>
       <c r="F194">
-        <v>25794880</v>
+        <v>76895920</v>
       </c>
     </row>
     <row r="195">
@@ -67917,17 +67917,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>EU-mix-2018</t>
+          <t>Scraps_EAF</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -67936,28 +67936,28 @@
         </is>
       </c>
       <c r="F195">
-        <v>1700</v>
+        <v>575</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>(NG)PE</t>
+          <t>EU-mix-2018</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -67966,13 +67966,13 @@
         </is>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -67982,12 +67982,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>chemical-PE</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>(NG)PEA</t>
+          <t>(NG)PE</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -67996,13 +67996,13 @@
         </is>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -68026,13 +68026,13 @@
         </is>
       </c>
       <c r="F198">
-        <v>546</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -68056,13 +68056,13 @@
         </is>
       </c>
       <c r="F199">
-        <v>345</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -68086,13 +68086,13 @@
         </is>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -68116,13 +68116,13 @@
         </is>
       </c>
       <c r="F201">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -68146,13 +68146,13 @@
         </is>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -68176,13 +68176,13 @@
         </is>
       </c>
       <c r="F203">
-        <v>76895920</v>
+        <v>193104000</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -68206,13 +68206,13 @@
         </is>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -68236,28 +68236,28 @@
         </is>
       </c>
       <c r="F205">
-        <v>575</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass-container</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>EU-mix-2018</t>
+          <t>(NG)_gco</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -68266,28 +68266,28 @@
         </is>
       </c>
       <c r="F206">
-        <v>9500</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>(NG)PE</t>
+          <t>(NG)_gfi</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -68296,28 +68296,28 @@
         </is>
       </c>
       <c r="F207">
-        <v>508</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>glass-float</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>(NG)PEA</t>
+          <t>(NG)_gfl</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -68326,336 +68326,6 @@
         </is>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>chemical</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>chemical-olefins</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>(LN)O</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F209">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>fertiliser</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>fertiliser-ammonia-NH3</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>(NG)NH3</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F210">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>(NG)_gco</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F211">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>(NG)_gfi</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F212">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>(NG)_gfl</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F213">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>refineries</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>REF-SMR</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>mwh_yr</t>
-        </is>
-      </c>
-      <c r="F214">
-        <v>193104000</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>steel-primary</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>BF-BOF</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F215">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>steel-secondary</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Scraps_EAF</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F216">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>(NG)_gco</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F217">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>(NG)_gfi</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F218">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>(NG)_gfl</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="F219">
         <v>94</v>
       </c>
     </row>
@@ -68666,7 +68336,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -73920,12 +73590,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>fertiliser</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>fertiliser-ammonia-NH3</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -73934,10 +73604,10 @@
         </is>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="189">
@@ -73948,40 +73618,40 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>refineries</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>steel-primary</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>kt_yr</t>
+          <t>mwh_yr</t>
         </is>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>21694400</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>7533440</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>steel</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>steel-secondary</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -73990,16 +73660,16 @@
         </is>
       </c>
       <c r="E190">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F190">
-        <v>1500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -74009,7 +73679,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>chemical-olefins</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -74018,26 +73688,26 @@
         </is>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>fertiliser</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>chemical-olefins</t>
+          <t>fertiliser-ammonia-NH3</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -74046,26 +73716,26 @@
         </is>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -74074,16 +73744,16 @@
         </is>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -74102,10 +73772,10 @@
         </is>
       </c>
       <c r="E194">
-        <v>21694400</v>
+        <v>64677920</v>
       </c>
       <c r="F194">
-        <v>7533440</v>
+        <v>22457280</v>
       </c>
     </row>
     <row r="195">
@@ -74116,12 +73786,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>steel</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>steel-secondary</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -74130,26 +73800,26 @@
         </is>
       </c>
       <c r="E195">
-        <v>1700</v>
+        <v>575</v>
       </c>
       <c r="F195">
-        <v>1700</v>
+        <v>575</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -74158,16 +73828,16 @@
         </is>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -74177,7 +73847,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>chemical-PE</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -74186,16 +73856,16 @@
         </is>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -74214,16 +73884,16 @@
         </is>
       </c>
       <c r="E198">
-        <v>546</v>
+        <v>2310</v>
       </c>
       <c r="F198">
-        <v>546</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -74242,16 +73912,16 @@
         </is>
       </c>
       <c r="E199">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="F199">
-        <v>345</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -74270,16 +73940,16 @@
         </is>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>2487</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -74298,16 +73968,16 @@
         </is>
       </c>
       <c r="E201">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="F201">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -74326,16 +73996,16 @@
         </is>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -74354,16 +74024,16 @@
         </is>
       </c>
       <c r="E203">
-        <v>64677920</v>
+        <v>162398080</v>
       </c>
       <c r="F203">
-        <v>22457280</v>
+        <v>56381600</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -74382,16 +74052,16 @@
         </is>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -74410,26 +74080,26 @@
         </is>
       </c>
       <c r="E205">
-        <v>575</v>
+        <v>1600</v>
       </c>
       <c r="F205">
-        <v>575</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>glass-container</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -74438,26 +74108,26 @@
         </is>
       </c>
       <c r="E206">
-        <v>9500</v>
+        <v>109</v>
       </c>
       <c r="F206">
-        <v>9500</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>chemical-PE</t>
+          <t>glass-fibre</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -74466,26 +74136,26 @@
         </is>
       </c>
       <c r="E207">
-        <v>508</v>
+        <v>23</v>
       </c>
       <c r="F207">
-        <v>508</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>chemical-PEA</t>
+          <t>glass-float</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -74494,317 +74164,9 @@
         </is>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>chemical</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>chemical-olefins</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E209">
-        <v>2310</v>
-      </c>
-      <c r="F209">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>fertiliser</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>fertiliser-ammonia-NH3</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E210">
-        <v>407</v>
-      </c>
-      <c r="F210">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E211">
-        <v>2487</v>
-      </c>
-      <c r="F211">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E212">
-        <v>128</v>
-      </c>
-      <c r="F212">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E213">
-        <v>1050</v>
-      </c>
-      <c r="F213">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>refineries</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>mwh_yr</t>
-        </is>
-      </c>
-      <c r="E214">
-        <v>162398080</v>
-      </c>
-      <c r="F214">
-        <v>56381600</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>steel-primary</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E215">
-        <v>7000</v>
-      </c>
-      <c r="F215">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>steel-secondary</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E216">
-        <v>1600</v>
-      </c>
-      <c r="F216">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>glass-container</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E217">
-        <v>109</v>
-      </c>
-      <c r="F217">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>glass-fibre</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E218">
-        <v>23</v>
-      </c>
-      <c r="F218">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>glass-float</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>kt_yr</t>
-        </is>
-      </c>
-      <c r="E219">
-        <v>94</v>
-      </c>
-      <c r="F219">
         <v>94</v>
       </c>
     </row>
@@ -90314,13 +89676,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G2">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H2">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I2">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="3">
@@ -90353,13 +89715,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G3">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H3">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I3">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="4">
@@ -90392,13 +89754,13 @@
         <v>393.0728043834692</v>
       </c>
       <c r="G4">
-        <v>433.9841375797772</v>
+        <v>393.0728043834692</v>
       </c>
       <c r="H4">
-        <v>529.0242420759855</v>
+        <v>393.0728043834692</v>
       </c>
       <c r="I4">
-        <v>644.8775991325821</v>
+        <v>393.0728043834692</v>
       </c>
     </row>
     <row r="5">
@@ -90431,13 +89793,13 @@
         <v>280.7659334134755</v>
       </c>
       <c r="G5">
-        <v>309.9882772743478</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="H5">
-        <v>377.8739802612176</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="I5">
-        <v>460.6262733996334</v>
+        <v>280.7659334134755</v>
       </c>
     </row>
     <row r="6">
@@ -90470,13 +89832,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G6">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H6">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I6">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="7">
@@ -90509,13 +89871,13 @@
         <v>93.58822980065565</v>
       </c>
       <c r="G7">
-        <v>103.3289679283741</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="H7">
-        <v>125.9574353285052</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="I7">
-        <v>153.5414108222984</v>
+        <v>93.58822980065565</v>
       </c>
     </row>
     <row r="8">
@@ -90548,13 +89910,13 @@
         <v>411.7914455528071</v>
       </c>
       <c r="G8">
-        <v>454.6510299568324</v>
+        <v>411.7914455528071</v>
       </c>
       <c r="H8">
-        <v>554.217068562248</v>
+        <v>411.7914455528071</v>
       </c>
       <c r="I8">
-        <v>675.5875140432322</v>
+        <v>411.7914455528071</v>
       </c>
     </row>
     <row r="9">
@@ -90587,13 +89949,13 @@
         <v>280.7659334134755</v>
       </c>
       <c r="G9">
-        <v>309.9882772743478</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="H9">
-        <v>377.8739802612176</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="I9">
-        <v>460.6262733996334</v>
+        <v>280.7659334134755</v>
       </c>
     </row>
     <row r="10">
@@ -90626,13 +89988,13 @@
         <v>56.15343548499683</v>
       </c>
       <c r="G10">
-        <v>61.99793015271469</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="H10">
-        <v>75.57513090738392</v>
+        <v>56.15343548499683</v>
       </c>
       <c r="I10">
-        <v>92.12566286647433</v>
+        <v>56.15343548499683</v>
       </c>
     </row>
     <row r="11">
@@ -90665,13 +90027,13 @@
         <v>93.58822980065565</v>
       </c>
       <c r="G11">
-        <v>103.3289679283741</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="H11">
-        <v>125.9574353285052</v>
+        <v>93.58822980065565</v>
       </c>
       <c r="I11">
-        <v>153.5414108222984</v>
+        <v>93.58822980065565</v>
       </c>
     </row>
     <row r="12">
@@ -90704,13 +90066,13 @@
         <v>467.9436370262955</v>
       </c>
       <c r="G12">
-        <v>516.6475866203216</v>
+        <v>467.9436370262955</v>
       </c>
       <c r="H12">
-        <v>629.7905251939301</v>
+        <v>467.9436370262955</v>
       </c>
       <c r="I12">
-        <v>767.7111359769685</v>
+        <v>467.9436370262955</v>
       </c>
     </row>
     <row r="13">
@@ -90743,13 +90105,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G13">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H13">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I13">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="14">
@@ -90782,13 +90144,13 @@
         <v>299.4845745828135</v>
       </c>
       <c r="G14">
-        <v>330.6551696514031</v>
+        <v>299.4845745828135</v>
       </c>
       <c r="H14">
-        <v>403.0668067474802</v>
+        <v>299.4845745828135</v>
       </c>
       <c r="I14">
-        <v>491.3361883102836</v>
+        <v>299.4845745828135</v>
       </c>
     </row>
     <row r="15">
@@ -90821,13 +90183,13 @@
         <v>318.201971740643</v>
       </c>
       <c r="G15">
-        <v>351.3206885392328</v>
+        <v>318.201971740643</v>
       </c>
       <c r="H15">
-        <v>428.2579589580409</v>
+        <v>318.201971740643</v>
       </c>
       <c r="I15">
-        <v>522.0440622881957</v>
+        <v>318.201971740643</v>
       </c>
     </row>
     <row r="16">
@@ -90860,13 +90222,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G16">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H16">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I16">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="17">
@@ -90899,13 +90261,13 @@
         <v>280.7659334134755</v>
       </c>
       <c r="G17">
-        <v>309.9882772743478</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="H17">
-        <v>377.8739802612176</v>
+        <v>280.7659334134755</v>
       </c>
       <c r="I17">
-        <v>460.6262733996334</v>
+        <v>280.7659334134755</v>
       </c>
     </row>
     <row r="18">
@@ -90938,13 +90300,13 @@
         <v>224.6137419399873</v>
       </c>
       <c r="G18">
-        <v>247.9917206108587</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="H18">
-        <v>302.3005236295357</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="I18">
-        <v>368.5026514658973</v>
+        <v>224.6137419399873</v>
       </c>
     </row>
     <row r="19">
@@ -90977,13 +90339,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G19">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H19">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I19">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="20">
@@ -91016,13 +90378,13 @@
         <v>318.201971740643</v>
       </c>
       <c r="G20">
-        <v>351.3206885392328</v>
+        <v>318.201971740643</v>
       </c>
       <c r="H20">
-        <v>428.2579589580409</v>
+        <v>318.201971740643</v>
       </c>
       <c r="I20">
-        <v>522.0440622881957</v>
+        <v>318.201971740643</v>
       </c>
     </row>
     <row r="21">
@@ -91055,13 +90417,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G21">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H21">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I21">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="22">
@@ -91094,13 +90456,13 @@
         <v>224.6137419399873</v>
       </c>
       <c r="G22">
-        <v>247.9917206108587</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="H22">
-        <v>302.3005236295357</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="I22">
-        <v>368.5026514658973</v>
+        <v>224.6137419399873</v>
       </c>
     </row>
     <row r="23">
@@ -91133,13 +90495,13 @@
         <v>74.87083264282624</v>
       </c>
       <c r="G23">
-        <v>82.66344904054438</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="H23">
-        <v>100.7662831179446</v>
+        <v>74.87083264282624</v>
       </c>
       <c r="I23">
-        <v>122.8335368443864</v>
+        <v>74.87083264282624</v>
       </c>
     </row>
     <row r="24">
@@ -91172,13 +90534,13 @@
         <v>224.6137419399873</v>
       </c>
       <c r="G24">
-        <v>247.9917206108587</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="H24">
-        <v>302.3005236295357</v>
+        <v>224.6137419399873</v>
       </c>
       <c r="I24">
-        <v>368.5026514658973</v>
+        <v>224.6137419399873</v>
       </c>
     </row>
     <row r="25">
@@ -91211,13 +90573,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G25">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H25">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I25">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="26">
@@ -91250,13 +90612,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G26">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H26">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I26">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="27">
@@ -91289,13 +90651,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G27">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H27">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I27">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="28">
@@ -91328,13 +90690,13 @@
         <v>692.5573789662826</v>
       </c>
       <c r="G28">
-        <v>764.6393072311801</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="H28">
-        <v>932.0910488234655</v>
+        <v>692.5573789662826</v>
       </c>
       <c r="I28">
-        <v>1136.213787442865</v>
+        <v>692.5573789662826</v>
       </c>
     </row>
     <row r="29">
@@ -91367,13 +90729,13 @@
         <v>2096.389534056677</v>
       </c>
       <c r="G29">
-        <v>2314.58344058137</v>
+        <v>2096.389534056677</v>
       </c>
       <c r="H29">
-        <v>2821.464298680957</v>
+        <v>2096.389534056677</v>
       </c>
       <c r="I29">
-        <v>3439.349236306508</v>
+        <v>2096.389534056677</v>
       </c>
     </row>
     <row r="30">
@@ -91406,13 +90768,13 @@
         <v>2246.132443353839</v>
       </c>
       <c r="G30">
-        <v>2479.911712151685</v>
+        <v>2246.132443353839</v>
       </c>
       <c r="H30">
-        <v>3022.998539192549</v>
+        <v>2246.132443353839</v>
       </c>
       <c r="I30">
-        <v>3685.01835092802</v>
+        <v>2246.132443353839</v>
       </c>
     </row>
     <row r="31">
@@ -91445,13 +90807,13 @@
         <v>2152.542969541675</v>
       </c>
       <c r="G31">
-        <v>2376.581370734085</v>
+        <v>2152.542969541675</v>
       </c>
       <c r="H31">
-        <v>2897.039429588342</v>
+        <v>2152.542969541675</v>
       </c>
       <c r="I31">
-        <v>3531.474899172983</v>
+        <v>2152.542969541675</v>
       </c>
     </row>
     <row r="32">
@@ -91484,13 +90846,13 @@
         <v>2077.672136898848</v>
       </c>
       <c r="G32">
-        <v>2293.917921693541</v>
+        <v>2077.672136898848</v>
       </c>
       <c r="H32">
-        <v>2796.273146470397</v>
+        <v>2077.672136898848</v>
       </c>
       <c r="I32">
-        <v>3408.641362328597</v>
+        <v>2077.672136898848</v>
       </c>
     </row>
     <row r="33">
@@ -91523,13 +90885,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G33">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H33">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I33">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="34">
@@ -91562,13 +90924,13 @@
         <v>1647.163294188212</v>
       </c>
       <c r="G34">
-        <v>1818.601372848879</v>
+        <v>1647.163294188212</v>
       </c>
       <c r="H34">
-        <v>2216.864925697588</v>
+        <v>1647.163294188212</v>
       </c>
       <c r="I34">
-        <v>2702.345974307453</v>
+        <v>1647.163294188212</v>
       </c>
     </row>
     <row r="35">
@@ -91601,13 +90963,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G35">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H35">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I35">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="36">
@@ -91640,13 +91002,13 @@
         <v>318.201971740643</v>
       </c>
       <c r="G36">
-        <v>351.3206885392328</v>
+        <v>318.201971740643</v>
       </c>
       <c r="H36">
-        <v>428.2579589580409</v>
+        <v>318.201971740643</v>
       </c>
       <c r="I36">
-        <v>522.0440622881957</v>
+        <v>318.201971740643</v>
       </c>
     </row>
     <row r="37">
@@ -91679,13 +91041,13 @@
         <v>4604.570513666162</v>
       </c>
       <c r="G37">
-        <v>5083.817911119572</v>
+        <v>4604.570513666162</v>
       </c>
       <c r="H37">
-        <v>6197.145665924162</v>
+        <v>4604.570513666162</v>
       </c>
       <c r="I37">
-        <v>7554.285986656249</v>
+        <v>4604.570513666162</v>
       </c>
     </row>
     <row r="38">
@@ -91718,13 +91080,13 @@
         <v>2189.979007868842</v>
       </c>
       <c r="G38">
-        <v>2417.91378199897</v>
+        <v>2189.979007868842</v>
       </c>
       <c r="H38">
-        <v>2947.423408285165</v>
+        <v>2189.979007868842</v>
       </c>
       <c r="I38">
-        <v>3592.892688061546</v>
+        <v>2189.979007868842</v>
       </c>
     </row>
     <row r="39">
@@ -91757,13 +91119,13 @@
         <v>16490.35282706296</v>
       </c>
       <c r="G39">
-        <v>18206.68199435507</v>
+        <v>16490.35282706296</v>
       </c>
       <c r="H39">
-        <v>22193.84375773785</v>
+        <v>16490.35282706296</v>
       </c>
       <c r="I39">
-        <v>27054.17169891792</v>
+        <v>16490.35282706296</v>
       </c>
     </row>
     <row r="40">
@@ -91796,13 +91158,13 @@
         <v>2377.156711481662</v>
       </c>
       <c r="G40">
-        <v>2624.573091344944</v>
+        <v>2377.156711481662</v>
       </c>
       <c r="H40">
-        <v>3199.339953217877</v>
+        <v>2377.156711481662</v>
       </c>
       <c r="I40">
-        <v>3899.977550638881</v>
+        <v>2377.156711481662</v>
       </c>
     </row>
     <row r="41">
@@ -91835,13 +91197,13 @@
         <v>2377.156711481662</v>
       </c>
       <c r="G41">
-        <v>2624.573091344944</v>
+        <v>2377.156711481662</v>
       </c>
       <c r="H41">
-        <v>3199.339953217877</v>
+        <v>2377.156711481662</v>
       </c>
       <c r="I41">
-        <v>3899.977550638881</v>
+        <v>2377.156711481662</v>
       </c>
     </row>
     <row r="42">
@@ -91874,13 +91236,13 @@
         <v>4773.030820121153</v>
       </c>
       <c r="G42">
-        <v>5269.811701577717</v>
+        <v>4773.030820121153</v>
       </c>
       <c r="H42">
-        <v>6423.871058646315</v>
+        <v>4773.030820121153</v>
       </c>
       <c r="I42">
-        <v>7830.662975255673</v>
+        <v>4773.030820121153</v>
       </c>
     </row>
     <row r="43">
@@ -91913,13 +91275,13 @@
         <v>1946.647868771025</v>
       </c>
       <c r="G43">
-        <v>2149.256542500282</v>
+        <v>1946.647868771025</v>
       </c>
       <c r="H43">
-        <v>2619.931732445069</v>
+        <v>1946.647868771025</v>
       </c>
       <c r="I43">
-        <v>3193.682162617737</v>
+        <v>1946.647868771025</v>
       </c>
     </row>
     <row r="44">
@@ -91952,13 +91314,13 @@
         <v>3032.278052120777</v>
       </c>
       <c r="G44">
-        <v>3347.879987311239</v>
+        <v>3032.278052120777</v>
       </c>
       <c r="H44">
-        <v>4081.04702334452</v>
+        <v>3032.278052120777</v>
       </c>
       <c r="I44">
-        <v>4974.773549193184</v>
+        <v>3032.278052120777</v>
       </c>
     </row>
     <row r="45">
@@ -91991,13 +91353,13 @@
         <v>3182.01971740643</v>
       </c>
       <c r="G45">
-        <v>3513.206885392328</v>
+        <v>3182.01971740643</v>
       </c>
       <c r="H45">
-        <v>4282.579589580409</v>
+        <v>3182.01971740643</v>
       </c>
       <c r="I45">
-        <v>5220.440622881957</v>
+        <v>3182.01971740643</v>
       </c>
     </row>
     <row r="46">
@@ -92030,13 +91392,13 @@
         <v>10800.15088603554</v>
       </c>
       <c r="G46">
-        <v>11924.23926493531</v>
+        <v>10800.15088603554</v>
       </c>
       <c r="H46">
-        <v>14535.58112663853</v>
+        <v>10800.15088603554</v>
       </c>
       <c r="I46">
-        <v>17718.79228475348</v>
+        <v>10800.15088603554</v>
       </c>
     </row>
     <row r="47">
@@ -92069,13 +91431,13 @@
         <v>992.0419535490962</v>
       </c>
       <c r="G47">
-        <v>1095.294476882583</v>
+        <v>992.0419535490962</v>
       </c>
       <c r="H47">
-        <v>1335.157855570946</v>
+        <v>992.0419535490962</v>
       </c>
       <c r="I47">
-        <v>1627.549975753149</v>
+        <v>992.0419535490962</v>
       </c>
     </row>
     <row r="48">
@@ -92108,13 +91470,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G48">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H48">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I48">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="49">
@@ -92147,13 +91509,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G49">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H49">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I49">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="50">
@@ -92186,13 +91548,13 @@
         <v>1029.476747864755</v>
       </c>
       <c r="G50">
-        <v>1136.625514658243</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="H50">
-        <v>1385.540159992067</v>
+        <v>1029.476747864755</v>
       </c>
       <c r="I50">
-        <v>1688.965723708973</v>
+        <v>1029.476747864755</v>
       </c>
     </row>
     <row r="51">
@@ -92225,13 +91587,13 @@
         <v>935.8885180640997</v>
       </c>
       <c r="G51">
-        <v>1033.296546729869</v>
+        <v>935.8885180640997</v>
       </c>
       <c r="H51">
-        <v>1259.582724663562</v>
+        <v>935.8885180640997</v>
       </c>
       <c r="I51">
-        <v>1535.424312886675</v>
+        <v>935.8885180640997</v>
       </c>
     </row>
     <row r="52">
@@ -92264,13 +91626,13 @@
         <v>954.6059152219291</v>
       </c>
       <c r="G52">
-        <v>1053.962065617698</v>
+        <v>954.6059152219291</v>
       </c>
       <c r="H52">
-        <v>1284.773876874123</v>
+        <v>954.6059152219291</v>
       </c>
       <c r="I52">
-        <v>1566.132186864587</v>
+        <v>954.6059152219291</v>
       </c>
     </row>
     <row r="53">
@@ -92303,13 +91665,13 @@
         <v>1497.421628902559</v>
       </c>
       <c r="G53">
-        <v>1653.27447476779</v>
+        <v>1497.421628902559</v>
       </c>
       <c r="H53">
-        <v>2015.332359461699</v>
+        <v>1497.421628902559</v>
       </c>
       <c r="I53">
-        <v>2456.67890061868</v>
+        <v>1497.421628902559</v>
       </c>
     </row>
     <row r="54">
@@ -92342,13 +91704,13 @@
         <v>1572.292461545385</v>
       </c>
       <c r="G54">
-        <v>1735.937923808334</v>
+        <v>1572.292461545385</v>
       </c>
       <c r="H54">
-        <v>2116.098642579643</v>
+        <v>1572.292461545385</v>
       </c>
       <c r="I54">
-        <v>2579.512437463066</v>
+        <v>1572.292461545385</v>
       </c>
     </row>
     <row r="55">
@@ -92381,13 +91743,13 @@
         <v>1441.268193417563</v>
       </c>
       <c r="G55">
-        <v>1591.276544615075</v>
+        <v>1441.268193417563</v>
       </c>
       <c r="H55">
-        <v>1939.757228554316</v>
+        <v>1441.268193417563</v>
       </c>
       <c r="I55">
-        <v>2364.553237752206</v>
+        <v>1441.268193417563</v>
       </c>
     </row>
     <row r="56">
@@ -92420,13 +91782,13 @@
         <v>1478.702987733221</v>
       </c>
       <c r="G56">
-        <v>1632.607582390734</v>
+        <v>1478.702987733221</v>
       </c>
       <c r="H56">
-        <v>1990.139532975436</v>
+        <v>1478.702987733221</v>
       </c>
       <c r="I56">
-        <v>2425.968985708029</v>
+        <v>1478.702987733221</v>
       </c>
     </row>
     <row r="57">
@@ -92459,13 +91821,13 @@
         <v>1347.678719605398</v>
       </c>
       <c r="G57">
-        <v>1487.946203197476</v>
+        <v>1347.678719605398</v>
       </c>
       <c r="H57">
-        <v>1813.798118950108</v>
+        <v>1347.678719605398</v>
       </c>
       <c r="I57">
-        <v>2211.009785997169</v>
+        <v>1347.678719605398</v>
       </c>
     </row>
     <row r="58">
@@ -92498,13 +91860,13 @@
         <v>1141.783618834749</v>
       </c>
       <c r="G58">
-        <v>1260.621374963672</v>
+        <v>1141.783618834749</v>
       </c>
       <c r="H58">
-        <v>1536.690421806835</v>
+        <v>1141.783618834749</v>
       </c>
       <c r="I58">
-        <v>1873.217049441922</v>
+        <v>1141.783618834749</v>
       </c>
     </row>
     <row r="59">
@@ -92537,13 +91899,13 @@
         <v>1197.937054319746</v>
       </c>
       <c r="G59">
-        <v>1322.619305116387</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="H59">
-        <v>1612.265552714219</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="I59">
-        <v>1965.342712308396</v>
+        <v>1197.937054319746</v>
       </c>
     </row>
     <row r="60">
@@ -92576,13 +91938,13 @@
         <v>1179.219657161916</v>
       </c>
       <c r="G60">
-        <v>1301.953786228557</v>
+        <v>1179.219657161916</v>
       </c>
       <c r="H60">
-        <v>1587.074400503658</v>
+        <v>1179.219657161916</v>
       </c>
       <c r="I60">
-        <v>1934.634838330484</v>
+        <v>1179.219657161916</v>
       </c>
     </row>
     <row r="61">
@@ -92615,13 +91977,13 @@
         <v>1197.937054319746</v>
       </c>
       <c r="G61">
-        <v>1322.619305116387</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="H61">
-        <v>1612.265552714219</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="I61">
-        <v>1965.342712308396</v>
+        <v>1197.937054319746</v>
       </c>
     </row>
     <row r="62">
@@ -92654,13 +92016,13 @@
         <v>1085.630183349752</v>
       </c>
       <c r="G62">
-        <v>1198.623444810958</v>
+        <v>1085.630183349752</v>
       </c>
       <c r="H62">
-        <v>1461.115290899451</v>
+        <v>1085.630183349752</v>
       </c>
       <c r="I62">
-        <v>1781.091386575448</v>
+        <v>1085.630183349752</v>
       </c>
     </row>
     <row r="63">
@@ -92693,13 +92055,13 @@
         <v>1104.34882451909</v>
       </c>
       <c r="G63">
-        <v>1219.290337188013</v>
+        <v>1104.34882451909</v>
       </c>
       <c r="H63">
-        <v>1486.308117385714</v>
+        <v>1104.34882451909</v>
       </c>
       <c r="I63">
-        <v>1811.801301486098</v>
+        <v>1104.34882451909</v>
       </c>
     </row>
     <row r="64">
@@ -92732,13 +92094,13 @@
         <v>69.09242005823036</v>
       </c>
       <c r="G64">
-        <v>76.28361463292276</v>
+        <v>69.09242005823036</v>
       </c>
       <c r="H64">
-        <v>92.98930057456326</v>
+        <v>69.09242005823036</v>
       </c>
       <c r="I64">
-        <v>113.3534385196079</v>
+        <v>69.09242005823036</v>
       </c>
     </row>
     <row r="65">
@@ -92771,13 +92133,13 @@
         <v>69.09242005823036</v>
       </c>
       <c r="G65">
-        <v>76.28361463292276</v>
+        <v>69.09242005823036</v>
       </c>
       <c r="H65">
-        <v>92.98930057456326</v>
+        <v>69.09242005823036</v>
       </c>
       <c r="I65">
-        <v>113.3534385196079</v>
+        <v>69.09242005823036</v>
       </c>
     </row>
     <row r="66">
@@ -92810,13 +92172,13 @@
         <v>70.66267149764558</v>
       </c>
       <c r="G66">
-        <v>78.01729910337828</v>
+        <v>70.66267149764558</v>
       </c>
       <c r="H66">
-        <v>95.1026522700801</v>
+        <v>70.66267149764558</v>
       </c>
       <c r="I66">
-        <v>115.9296024439294</v>
+        <v>70.66267149764558</v>
       </c>
     </row>
     <row r="67">
@@ -92849,13 +92211,13 @@
         <v>303.0644765198881</v>
       </c>
       <c r="G67">
-        <v>334.6076706574656</v>
+        <v>303.0644765198881</v>
       </c>
       <c r="H67">
-        <v>407.884883418894</v>
+        <v>303.0644765198881</v>
       </c>
       <c r="I67">
-        <v>497.209396887844</v>
+        <v>303.0644765198881</v>
       </c>
     </row>
     <row r="68">
@@ -92888,13 +92250,13 @@
         <v>315.6268011253546</v>
       </c>
       <c r="G68">
-        <v>348.4774920979281</v>
+        <v>315.6268011253546</v>
       </c>
       <c r="H68">
-        <v>424.7921183611415</v>
+        <v>315.6268011253546</v>
       </c>
       <c r="I68">
-        <v>517.8192219399841</v>
+        <v>315.6268011253546</v>
       </c>
     </row>
     <row r="69">
@@ -92927,13 +92289,13 @@
         <v>1185.563214155967</v>
       </c>
       <c r="G69">
-        <v>1308.957585729694</v>
+        <v>1185.563214155967</v>
       </c>
       <c r="H69">
-        <v>1595.611993014306</v>
+        <v>1185.563214155967</v>
       </c>
       <c r="I69">
-        <v>1945.042115961154</v>
+        <v>1185.563214155967</v>
       </c>
     </row>
     <row r="70">
@@ -92966,13 +92328,13 @@
         <v>1185.563214155967</v>
       </c>
       <c r="G70">
-        <v>1308.957585729694</v>
+        <v>1185.563214155967</v>
       </c>
       <c r="H70">
-        <v>1595.611993014306</v>
+        <v>1185.563214155967</v>
       </c>
       <c r="I70">
-        <v>1945.042115961154</v>
+        <v>1185.563214155967</v>
       </c>
     </row>
     <row r="71">
@@ -93005,13 +92367,13 @@
         <v>617.6865463234566</v>
       </c>
       <c r="G71">
-        <v>681.9758581906359</v>
+        <v>617.6865463234566</v>
       </c>
       <c r="H71">
-        <v>831.3247657055211</v>
+        <v>617.6865463234566</v>
       </c>
       <c r="I71">
-        <v>1013.380250598479</v>
+        <v>617.6865463234566</v>
       </c>
     </row>
     <row r="72">
@@ -93044,13 +92406,13 @@
         <v>1197.937054319746</v>
       </c>
       <c r="G72">
-        <v>1322.619305116387</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="H72">
-        <v>1612.265552714219</v>
+        <v>1197.937054319746</v>
       </c>
       <c r="I72">
-        <v>1965.342712308396</v>
+        <v>1197.937054319746</v>
       </c>
     </row>
     <row r="73">
@@ -93083,13 +92445,13 @@
         <v>1160.501015992578</v>
       </c>
       <c r="G73">
-        <v>1281.286893851502</v>
+        <v>1160.501015992578</v>
       </c>
       <c r="H73">
-        <v>1561.881574017395</v>
+        <v>1160.501015992578</v>
       </c>
       <c r="I73">
-        <v>1903.924923419834</v>
+        <v>1160.501015992578</v>
       </c>
     </row>
     <row r="74">
@@ -93122,13 +92484,13 @@
         <v>598.9679051541186</v>
       </c>
       <c r="G74">
-        <v>661.3089658135807</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="H74">
-        <v>806.1319392192587</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="I74">
-        <v>982.6703356878293</v>
+        <v>598.9679051541186</v>
       </c>
     </row>
     <row r="75">
@@ -93161,13 +92523,13 @@
         <v>861.0176854212731</v>
       </c>
       <c r="G75">
-        <v>950.6330976893241</v>
+        <v>861.0176854212731</v>
       </c>
       <c r="H75">
-        <v>1158.816441545617</v>
+        <v>861.0176854212731</v>
       </c>
       <c r="I75">
-        <v>1412.590776042288</v>
+        <v>861.0176854212731</v>
       </c>
     </row>
     <row r="76">
@@ -93200,13 +92562,13 @@
         <v>598.9679051541186</v>
       </c>
       <c r="G76">
-        <v>661.3089658135807</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="H76">
-        <v>806.1319392192587</v>
+        <v>598.9679051541186</v>
       </c>
       <c r="I76">
-        <v>982.6703356878293</v>
+        <v>598.9679051541186</v>
       </c>
     </row>
     <row r="77">
@@ -93239,13 +92601,13 @@
         <v>1385.114757932565</v>
       </c>
       <c r="G77">
-        <v>1529.27861446236</v>
+        <v>1385.114757932565</v>
       </c>
       <c r="H77">
-        <v>1864.182097646931</v>
+        <v>1385.114757932565</v>
       </c>
       <c r="I77">
-        <v>2272.427574885731</v>
+        <v>1385.114757932565</v>
       </c>
     </row>
     <row r="78">
@@ -93278,13 +92640,13 @@
         <v>336.9193688984724</v>
       </c>
       <c r="G78">
-        <v>371.9862074270625</v>
+        <v>336.9193688984724</v>
       </c>
       <c r="H78">
-        <v>453.4491111686016</v>
+        <v>336.9193688984724</v>
       </c>
       <c r="I78">
-        <v>552.7519362661078</v>
+        <v>336.9193688984724</v>
       </c>
     </row>
     <row r="79">
@@ -93314,16 +92676,16 @@
         </is>
       </c>
       <c r="F79">
-        <v>238.2303606374057</v>
+        <v>275.1267368041234</v>
       </c>
       <c r="G79">
-        <v>205.9453918553723</v>
+        <v>237.8415726249732</v>
       </c>
       <c r="H79">
-        <v>141.7388873357562</v>
+        <v>163.6909646889521</v>
       </c>
       <c r="I79">
-        <v>116.2985742242102</v>
+        <v>134.3105351293966</v>
       </c>
     </row>
     <row r="80">
@@ -93353,16 +92715,16 @@
         </is>
       </c>
       <c r="F80">
-        <v>163.5448700027956</v>
+        <v>188.874190025714</v>
       </c>
       <c r="G80">
-        <v>132.0473394837387</v>
+        <v>152.4984200948358</v>
       </c>
       <c r="H80">
-        <v>116.2985742242102</v>
+        <v>134.3105351293966</v>
       </c>
       <c r="I80">
-        <v>105.3955828906905</v>
+        <v>121.7189224610157</v>
       </c>
     </row>
   </sheetData>
